--- a/Quan_Ly/Quan_Ly/bin/Debug/data/Doanh Thu.xlsx
+++ b/Quan_Ly/Quan_Ly/bin/Debug/data/Doanh Thu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc Tap\2023\PhatTrienUngDung\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quan_Ly_CoffeeShop\Quan_Ly\Quan_Ly\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16251A96-CB09-4BDD-8924-BAC969D4FE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC4BF3-DBE6-47CE-B350-B41CC165CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiền " sheetId="14" r:id="rId1"/>
@@ -36,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -47,57 +49,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="62">
-  <si>
-    <t>Tiền bán cà phê</t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Cà phê đen</t>
-  </si>
-  <si>
-    <t>Cà phê sữa</t>
-  </si>
-  <si>
-    <t>Bạc sỉu</t>
-  </si>
-  <si>
-    <t>Cà phê muối</t>
-  </si>
-  <si>
-    <t>Ca cao</t>
-  </si>
-  <si>
-    <t>Ca cao muối</t>
-  </si>
-  <si>
-    <t>Tổng Ly</t>
-  </si>
-  <si>
-    <t>Tổng</t>
-  </si>
-  <si>
-    <t>Bạc xỉu muối</t>
-  </si>
-  <si>
-    <t>Sữa chua việt quất</t>
-  </si>
-  <si>
-    <t>Sữa chua xoài</t>
-  </si>
-  <si>
-    <t>Sữa chua dâu</t>
-  </si>
-  <si>
-    <t>Sữa chua chanh dây</t>
-  </si>
-  <si>
-    <t>Sữa chua kiwi</t>
-  </si>
-  <si>
-    <t>Cacao đá xay</t>
-  </si>
   <si>
     <t xml:space="preserve">đg 1kg: </t>
   </si>
@@ -231,7 +182,58 @@
     <t xml:space="preserve">ly nắp:  </t>
   </si>
   <si>
+    <t>Tiền bán cà phê</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Cà phê đen</t>
+  </si>
+  <si>
+    <t>Cà phê sữa</t>
+  </si>
+  <si>
+    <t>Bạc sỉu</t>
+  </si>
+  <si>
+    <t>Cà phê muối</t>
+  </si>
+  <si>
+    <t>Ca cao</t>
+  </si>
+  <si>
+    <t>Ca cao muối</t>
+  </si>
+  <si>
+    <t>Bạc xỉu muối</t>
+  </si>
+  <si>
+    <t>Ca cao đá xay</t>
+  </si>
+  <si>
+    <t>Sữa chua việt quất</t>
+  </si>
+  <si>
+    <t>Sữa chua xoài</t>
+  </si>
+  <si>
+    <t>Sữa chua dâu</t>
+  </si>
+  <si>
+    <t>Sữa chua chanh dây</t>
+  </si>
+  <si>
+    <t>Sữa chua kiwi</t>
+  </si>
+  <si>
+    <t>Tổng Ly</t>
+  </si>
+  <si>
     <t>Tiền vốn</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -288,7 +290,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Inherit"/>
-      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
@@ -625,6 +626,15 @@
     <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -634,15 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,34 +866,34 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" customWidth="1"/>
-    <col min="17" max="25" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="20.25">
       <c r="A2" s="29">
         <v>21000</v>
       </c>
@@ -902,54 +903,54 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="49" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="20.25">
       <c r="A3" s="32" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E3" s="52">
         <f>(B10*20)+(B2*10)+B27+B28</f>
@@ -1014,7 +1015,7 @@
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="45" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E4" s="52">
         <f t="shared" ref="E4:Q4" si="0">E5-E3</f>
@@ -1069,15 +1070,15 @@
         <v>8998.6166577463046</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20">
+    <row r="5" spans="1:25" ht="20.25">
       <c r="A5" s="32" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E5" s="52">
         <v>12000</v>
@@ -1150,12 +1151,12 @@
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="20">
+    <row r="7" spans="1:25" ht="20.25">
       <c r="A7" s="32" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C7" s="22"/>
       <c r="E7" s="22"/>
@@ -1184,10 +1185,10 @@
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -1208,12 +1209,12 @@
       <c r="F10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="20">
+    <row r="11" spans="1:25" ht="20.25">
       <c r="A11" s="31" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F11" s="22"/>
       <c r="I11" s="22"/>
@@ -1231,18 +1232,18 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="20">
+    <row r="13" spans="1:25" ht="20.25">
       <c r="A13" s="32" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:25" ht="14.5">
+    <row r="14" spans="1:25">
       <c r="A14" s="29">
         <v>150000</v>
       </c>
@@ -1254,12 +1255,12 @@
       <c r="D14" s="23"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:25" ht="20">
+    <row r="15" spans="1:25" ht="20.25">
       <c r="A15" s="30" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
@@ -1274,12 +1275,12 @@
       <c r="C16" s="21"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:25" ht="20">
+    <row r="17" spans="1:25" ht="20.25">
       <c r="A17" s="30" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="14.25" customHeight="1">
@@ -1314,12 +1315,12 @@
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
     </row>
-    <row r="19" spans="1:25" ht="20">
+    <row r="19" spans="1:25" ht="20.25">
       <c r="A19" s="33" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -1345,7 +1346,7 @@
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
     </row>
-    <row r="20" spans="1:25" ht="14.5">
+    <row r="20" spans="1:25">
       <c r="A20" s="34">
         <v>97000</v>
       </c>
@@ -1377,12 +1378,12 @@
       <c r="X20" s="22"/>
       <c r="Y20" s="22"/>
     </row>
-    <row r="21" spans="1:25" ht="20">
+    <row r="21" spans="1:25" ht="20.25">
       <c r="A21" s="33" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1408,7 +1409,7 @@
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
     </row>
-    <row r="22" spans="1:25" ht="14.5">
+    <row r="22" spans="1:25">
       <c r="A22" s="35">
         <v>90000</v>
       </c>
@@ -1442,10 +1443,10 @@
     </row>
     <row r="23" spans="1:25" ht="21">
       <c r="A23" s="33" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1471,7 +1472,7 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
     </row>
-    <row r="24" spans="1:25" ht="14.5">
+    <row r="24" spans="1:25">
       <c r="A24" s="35">
         <v>97000</v>
       </c>
@@ -1505,10 +1506,10 @@
     </row>
     <row r="25" spans="1:25" ht="21">
       <c r="A25" s="33" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -1534,7 +1535,7 @@
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
     </row>
-    <row r="26" spans="1:25" ht="14.5">
+    <row r="26" spans="1:25">
       <c r="A26" s="35">
         <v>102000</v>
       </c>
@@ -1566,9 +1567,9 @@
       <c r="X26" s="22"/>
       <c r="Y26" s="22"/>
     </row>
-    <row r="27" spans="1:25" ht="20">
+    <row r="27" spans="1:25" ht="20.25">
       <c r="A27" s="32" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B27" s="48">
         <v>540</v>
@@ -1576,7 +1577,7 @@
     </row>
     <row r="28" spans="1:25" ht="14.25" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B28" s="40">
         <v>1060</v>
@@ -2575,93 +2576,94 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="25.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="19.54296875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="25.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45170</v>
       </c>
@@ -2694,16 +2696,16 @@
         <f>SUM(B3:N3)</f>
         <v>53</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>574591.52664443431</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>311408.47335556563</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45171</v>
       </c>
@@ -2724,16 +2726,16 @@
         <f>SUM(B4:N4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45172</v>
       </c>
@@ -2754,16 +2756,16 @@
         <f t="shared" ref="O5:O32" si="0">SUM(B5:N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45173</v>
       </c>
@@ -2796,16 +2798,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>618557.23544265574</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>339442.76455734426</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45174</v>
       </c>
@@ -2838,16 +2840,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>500199.19291311566</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>283800.80708688434</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45175</v>
       </c>
@@ -2884,16 +2886,16 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>503521.19602838048</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>276478.80397161952</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45176</v>
       </c>
@@ -2926,16 +2928,16 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>462084.56847406918</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>259915.43152593082</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45177</v>
       </c>
@@ -2970,16 +2972,16 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>546165.03091934626</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>312834.9690806538</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45178</v>
       </c>
@@ -3014,16 +3016,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>669790.61862022593</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>350209.38137977413</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45179</v>
       </c>
@@ -3060,16 +3062,16 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>828391.96246684273</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>439608.03753315733</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45180</v>
       </c>
@@ -3100,16 +3102,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>425803.02117556642</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>233196.97882443361</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45181</v>
       </c>
@@ -3142,16 +3144,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>476470.86205003632</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>269529.13794996368</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45182</v>
       </c>
@@ -3186,16 +3188,16 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>671715.40218480246</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>355284.59781519766</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45183</v>
       </c>
@@ -3230,16 +3232,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>373789.92371032154</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>209210.07628967843</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20">
+    <row r="17" spans="1:17" ht="20.25">
       <c r="A17" s="4">
         <v>45184</v>
       </c>
@@ -3272,16 +3274,16 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>467297.63725692016</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>256702.36274307987</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45185</v>
       </c>
@@ -3320,16 +3322,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>508920.62459980894</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>277079.375400191</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45186</v>
       </c>
@@ -3366,16 +3368,16 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>773692.35642138589</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>443307.64357861388</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45187</v>
       </c>
@@ -3414,16 +3416,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>465343.88884347019</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>274656.11115652981</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45188</v>
       </c>
@@ -3458,16 +3460,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>455375.96451558504</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>236624.03548441487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45189</v>
       </c>
@@ -3506,16 +3508,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>518181.63098619989</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>304818.36901380011</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45190</v>
       </c>
@@ -3552,16 +3554,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>613896.48702920577</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>338103.51297079417</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45191</v>
       </c>
@@ -3604,16 +3606,16 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>731676.87807041779</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>496323.12192958209</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45192</v>
       </c>
@@ -3658,16 +3660,16 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>883348.66916926904</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>556651.33083073073</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45193</v>
       </c>
@@ -3704,16 +3706,16 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>807405.69059774256</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>448594.30940225732</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45194</v>
       </c>
@@ -3750,16 +3752,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>483250.13526993402</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>260749.86473006592</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45195</v>
       </c>
@@ -3800,16 +3802,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>546766.0198267292</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>360233.98017327068</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45196</v>
       </c>
@@ -3856,16 +3858,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>757746.69588526245</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>532253.30411473755</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45197</v>
       </c>
@@ -3906,16 +3908,16 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>517386.13912137377</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>307613.86087862623</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45198</v>
       </c>
@@ -3958,16 +3960,16 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>542091.37546978926</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>330908.62453021063</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45199</v>
       </c>
@@ -4012,18 +4014,18 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>881124.62587120559</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>516875.37412879436</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B33" s="59">
         <f t="shared" ref="B33:O33" si="1">SUM(B3:B32)</f>
@@ -4081,11 +4083,11 @@
         <f t="shared" si="1"/>
         <v>1555</v>
       </c>
-      <c r="P33" s="69">
+      <c r="P33" s="65">
         <f>SUM(P3:P32)</f>
         <v>16604585.359564099</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="65">
         <f>SUM(Q3:Q32)</f>
         <v>9582414.6404359005</v>
       </c>
@@ -4103,99 +4105,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="9"/>
-    <col min="3" max="3" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="9" customWidth="1"/>
-    <col min="7" max="14" width="15.26953125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9" customWidth="1"/>
+    <col min="7" max="14" width="15.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45200</v>
       </c>
@@ -4234,16 +4237,16 @@
         <f>SUM(B3:N3)</f>
         <v>90</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>913870.82902215188</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>546129.17097784835</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45201</v>
       </c>
@@ -4286,16 +4289,16 @@
         <f>SUM(B4:N4)</f>
         <v>46</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>490600.29005389469</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>297399.70994610531</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45202</v>
       </c>
@@ -4334,16 +4337,16 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>50</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>513054.57658473653</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>340945.42341526347</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45203</v>
       </c>
@@ -4364,16 +4367,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45204</v>
       </c>
@@ -4394,16 +4397,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45205</v>
       </c>
@@ -4424,16 +4427,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45206</v>
       </c>
@@ -4454,16 +4457,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45207</v>
       </c>
@@ -4484,16 +4487,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45208</v>
       </c>
@@ -4514,16 +4517,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45209</v>
       </c>
@@ -4544,16 +4547,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45210</v>
       </c>
@@ -4574,16 +4577,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45211</v>
       </c>
@@ -4604,16 +4607,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45212</v>
       </c>
@@ -4634,16 +4637,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45213</v>
       </c>
@@ -4664,16 +4667,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.5">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="4">
         <v>45214</v>
       </c>
@@ -4694,16 +4697,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45215</v>
       </c>
@@ -4724,46 +4727,68 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45216</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>7</v>
+      </c>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="68">
-        <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="68">
-        <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.5">
+        <v>27</v>
+      </c>
+      <c r="P19" s="64">
+        <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 + E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
+        <v>263267.93117205717</v>
+      </c>
+      <c r="Q19" s="64">
+        <f>(B19*'Tiền '!$E$3) + (C19*'Tiền '!$F$3) + (D19*'Tiền '!$G$3) + (E19*'Tiền '!$H$3) + (F19*'Tiền '!$I$3) + (G19*'Tiền '!$J$3) + (H19*'Tiền '!$K$3) + (I19*'Tiền '!$L$3) + (J19*'Tiền '!$M$3) + (K19*'Tiền '!$N$3) + (L19*'Tiền '!$O$3) + (M19*'Tiền '!$P$3) + (N19*'Tiền '!$Q$3)</f>
+        <v>199732.06882794289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45217</v>
       </c>
@@ -4784,16 +4809,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45218</v>
       </c>
@@ -4814,16 +4839,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45219</v>
       </c>
@@ -4844,16 +4869,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45220</v>
       </c>
@@ -4874,16 +4899,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45221</v>
       </c>
@@ -4904,16 +4929,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45222</v>
       </c>
@@ -4934,16 +4959,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45223</v>
       </c>
@@ -4964,16 +4989,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45224</v>
       </c>
@@ -4994,16 +5019,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45225</v>
       </c>
@@ -5024,16 +5049,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45226</v>
       </c>
@@ -5054,16 +5079,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45227</v>
       </c>
@@ -5084,16 +5109,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45228</v>
       </c>
@@ -5114,16 +5139,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="8">
         <v>45229</v>
       </c>
@@ -5144,16 +5169,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="10">
         <v>45230</v>
       </c>
@@ -5174,26 +5199,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.5">
+    <row r="34" spans="1:17" ht="18.75">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34" s="59">
         <f t="shared" ref="C34:O34" si="1">SUM(C3:C33)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="59">
         <f t="shared" si="1"/>
@@ -5201,23 +5226,23 @@
       </c>
       <c r="E34" s="59">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F34" s="59">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" s="59">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="59">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34" s="59">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" s="59">
         <f t="shared" si="1"/>
@@ -5225,31 +5250,31 @@
       </c>
       <c r="K34" s="59">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" s="59">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" s="59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O34" s="59">
         <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="P34" s="69">
+        <v>213</v>
+      </c>
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
-        <v>1917525.6956607832</v>
-      </c>
-      <c r="Q34" s="69">
+        <v>2180793.6268328405</v>
+      </c>
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
-        <v>1184474.304339217</v>
+        <v>1384206.37316716</v>
       </c>
     </row>
   </sheetData>
@@ -5266,102 +5291,103 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:R33"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="9"/>
-    <col min="3" max="3" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="15.26953125" style="9" customWidth="1"/>
-    <col min="15" max="16" width="10.1796875" style="9" customWidth="1"/>
-    <col min="17" max="18" width="20.6328125" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="15.28515625" style="9" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" style="9" customWidth="1"/>
+    <col min="17" max="18" width="20.5703125" style="9" customWidth="1"/>
+    <col min="19" max="31" width="14.42578125" style="9" customWidth="1"/>
+    <col min="32" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+    <row r="1" spans="1:18" ht="15.95" customHeight="1">
+      <c r="A1" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
       <c r="Q1" s="62"/>
       <c r="R1" s="62"/>
     </row>
-    <row r="2" spans="1:18" ht="18.5">
+    <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="R2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="4">
         <v>45231</v>
       </c>
@@ -5386,16 +5412,16 @@
         <f>SUM(C3:O3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>C3*'Tiền '!$E$4 + D3*'Tiền '!$F$4 + E3*'Tiền '!$G$4 +  F3*'Tiền '!$H$4 + G3*'Tiền '!$I$4 + H3*'Tiền '!$J$4 + I3*'Tiền '!$K$4 + J3*'Tiền '!$L$4 + K3*'Tiền '!$M$4 + L3*'Tiền '!$N$4 + M3*'Tiền '!$O$4 + N3*'Tiền '!$P$4 + O3*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R3" s="68">
+      <c r="R3" s="64">
         <f>C3*'Tiền '!$E$3 + D3*'Tiền '!$F$3 + E3*'Tiền '!$G$3 +  F3*'Tiền '!$H$3 + G3*'Tiền '!$I$3 + H3*'Tiền '!$J$3 + I3*'Tiền '!$K$3 + J3*'Tiền '!$L$3 + K3*'Tiền '!$M$3 + L3*'Tiền '!$N$3 + M3*'Tiền '!$O$3 + N3*'Tiền '!$P$3 + O3*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.5">
+    <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="4">
         <v>45232</v>
       </c>
@@ -5420,16 +5446,16 @@
         <f>SUM(C4:O4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>C4*'Tiền '!$E$4 + D4*'Tiền '!$F$4 + E4*'Tiền '!$G$4 +  F4*'Tiền '!$H$4 + G4*'Tiền '!$I$4 + H4*'Tiền '!$J$4 + I4*'Tiền '!$K$4 + J4*'Tiền '!$L$4 + K4*'Tiền '!$M$4 + L4*'Tiền '!$N$4 + M4*'Tiền '!$O$4 + N4*'Tiền '!$P$4 + O4*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="68">
+      <c r="R4" s="64">
         <f>C4*'Tiền '!$E$3 + D4*'Tiền '!$F$3 + E4*'Tiền '!$G$3 +  F4*'Tiền '!$H$3 + G4*'Tiền '!$I$3 + H4*'Tiền '!$J$3 + I4*'Tiền '!$K$3 + J4*'Tiền '!$L$3 + K4*'Tiền '!$M$3 + L4*'Tiền '!$N$3 + M4*'Tiền '!$O$3 + N4*'Tiền '!$P$3 + O4*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.5">
+    <row r="5" spans="1:18" ht="18.75">
       <c r="A5" s="4">
         <v>45233</v>
       </c>
@@ -5454,16 +5480,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>C5*'Tiền '!$E$4 + D5*'Tiền '!$F$4 + E5*'Tiền '!$G$4 +  F5*'Tiền '!$H$4 + G5*'Tiền '!$I$4 + H5*'Tiền '!$J$4 + I5*'Tiền '!$K$4 + J5*'Tiền '!$L$4 + K5*'Tiền '!$M$4 + L5*'Tiền '!$N$4 + M5*'Tiền '!$O$4 + N5*'Tiền '!$P$4 + O5*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R5" s="68">
+      <c r="R5" s="64">
         <f>C5*'Tiền '!$E$3 + D5*'Tiền '!$F$3 + E5*'Tiền '!$G$3 +  F5*'Tiền '!$H$3 + G5*'Tiền '!$I$3 + H5*'Tiền '!$J$3 + I5*'Tiền '!$K$3 + J5*'Tiền '!$L$3 + K5*'Tiền '!$M$3 + L5*'Tiền '!$N$3 + M5*'Tiền '!$O$3 + N5*'Tiền '!$P$3 + O5*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.5">
+    <row r="6" spans="1:18" ht="18.75">
       <c r="A6" s="4">
         <v>45234</v>
       </c>
@@ -5488,16 +5514,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>C6*'Tiền '!$E$4 + D6*'Tiền '!$F$4 + E6*'Tiền '!$G$4 +  F6*'Tiền '!$H$4 + G6*'Tiền '!$I$4 + H6*'Tiền '!$J$4 + I6*'Tiền '!$K$4 + J6*'Tiền '!$L$4 + K6*'Tiền '!$M$4 + L6*'Tiền '!$N$4 + M6*'Tiền '!$O$4 + N6*'Tiền '!$P$4 + O6*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R6" s="68">
+      <c r="R6" s="64">
         <f>C6*'Tiền '!$E$3 + D6*'Tiền '!$F$3 + E6*'Tiền '!$G$3 +  F6*'Tiền '!$H$3 + G6*'Tiền '!$I$3 + H6*'Tiền '!$J$3 + I6*'Tiền '!$K$3 + J6*'Tiền '!$L$3 + K6*'Tiền '!$M$3 + L6*'Tiền '!$N$3 + M6*'Tiền '!$O$3 + N6*'Tiền '!$P$3 + O6*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.5">
+    <row r="7" spans="1:18" ht="18.75">
       <c r="A7" s="4">
         <v>45235</v>
       </c>
@@ -5522,16 +5548,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>C7*'Tiền '!$E$4 + D7*'Tiền '!$F$4 + E7*'Tiền '!$G$4 +  F7*'Tiền '!$H$4 + G7*'Tiền '!$I$4 + H7*'Tiền '!$J$4 + I7*'Tiền '!$K$4 + J7*'Tiền '!$L$4 + K7*'Tiền '!$M$4 + L7*'Tiền '!$N$4 + M7*'Tiền '!$O$4 + N7*'Tiền '!$P$4 + O7*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R7" s="68">
+      <c r="R7" s="64">
         <f>C7*'Tiền '!$E$3 + D7*'Tiền '!$F$3 + E7*'Tiền '!$G$3 +  F7*'Tiền '!$H$3 + G7*'Tiền '!$I$3 + H7*'Tiền '!$J$3 + I7*'Tiền '!$K$3 + J7*'Tiền '!$L$3 + K7*'Tiền '!$M$3 + L7*'Tiền '!$N$3 + M7*'Tiền '!$O$3 + N7*'Tiền '!$P$3 + O7*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.5">
+    <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="4">
         <v>45236</v>
       </c>
@@ -5556,16 +5582,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>C8*'Tiền '!$E$4 + D8*'Tiền '!$F$4 + E8*'Tiền '!$G$4 +  F8*'Tiền '!$H$4 + G8*'Tiền '!$I$4 + H8*'Tiền '!$J$4 + I8*'Tiền '!$K$4 + J8*'Tiền '!$L$4 + K8*'Tiền '!$M$4 + L8*'Tiền '!$N$4 + M8*'Tiền '!$O$4 + N8*'Tiền '!$P$4 + O8*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R8" s="68">
+      <c r="R8" s="64">
         <f>C8*'Tiền '!$E$3 + D8*'Tiền '!$F$3 + E8*'Tiền '!$G$3 +  F8*'Tiền '!$H$3 + G8*'Tiền '!$I$3 + H8*'Tiền '!$J$3 + I8*'Tiền '!$K$3 + J8*'Tiền '!$L$3 + K8*'Tiền '!$M$3 + L8*'Tiền '!$N$3 + M8*'Tiền '!$O$3 + N8*'Tiền '!$P$3 + O8*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.5">
+    <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="4">
         <v>45237</v>
       </c>
@@ -5590,16 +5616,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>C9*'Tiền '!$E$4 + D9*'Tiền '!$F$4 + E9*'Tiền '!$G$4 +  F9*'Tiền '!$H$4 + G9*'Tiền '!$I$4 + H9*'Tiền '!$J$4 + I9*'Tiền '!$K$4 + J9*'Tiền '!$L$4 + K9*'Tiền '!$M$4 + L9*'Tiền '!$N$4 + M9*'Tiền '!$O$4 + N9*'Tiền '!$P$4 + O9*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="64">
         <f>C9*'Tiền '!$E$3 + D9*'Tiền '!$F$3 + E9*'Tiền '!$G$3 +  F9*'Tiền '!$H$3 + G9*'Tiền '!$I$3 + H9*'Tiền '!$J$3 + I9*'Tiền '!$K$3 + J9*'Tiền '!$L$3 + K9*'Tiền '!$M$3 + L9*'Tiền '!$N$3 + M9*'Tiền '!$O$3 + N9*'Tiền '!$P$3 + O9*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.5">
+    <row r="10" spans="1:18" ht="18.75">
       <c r="A10" s="4">
         <v>45238</v>
       </c>
@@ -5624,16 +5650,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>C10*'Tiền '!$E$4 + D10*'Tiền '!$F$4 + E10*'Tiền '!$G$4 +  F10*'Tiền '!$H$4 + G10*'Tiền '!$I$4 + H10*'Tiền '!$J$4 + I10*'Tiền '!$K$4 + J10*'Tiền '!$L$4 + K10*'Tiền '!$M$4 + L10*'Tiền '!$N$4 + M10*'Tiền '!$O$4 + N10*'Tiền '!$P$4 + O10*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="64">
         <f>C10*'Tiền '!$E$3 + D10*'Tiền '!$F$3 + E10*'Tiền '!$G$3 +  F10*'Tiền '!$H$3 + G10*'Tiền '!$I$3 + H10*'Tiền '!$J$3 + I10*'Tiền '!$K$3 + J10*'Tiền '!$L$3 + K10*'Tiền '!$M$3 + L10*'Tiền '!$N$3 + M10*'Tiền '!$O$3 + N10*'Tiền '!$P$3 + O10*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.5">
+    <row r="11" spans="1:18" ht="18.75">
       <c r="A11" s="4">
         <v>45239</v>
       </c>
@@ -5658,16 +5684,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>C11*'Tiền '!$E$4 + D11*'Tiền '!$F$4 + E11*'Tiền '!$G$4 +  F11*'Tiền '!$H$4 + G11*'Tiền '!$I$4 + H11*'Tiền '!$J$4 + I11*'Tiền '!$K$4 + J11*'Tiền '!$L$4 + K11*'Tiền '!$M$4 + L11*'Tiền '!$N$4 + M11*'Tiền '!$O$4 + N11*'Tiền '!$P$4 + O11*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="64">
         <f>C11*'Tiền '!$E$3 + D11*'Tiền '!$F$3 + E11*'Tiền '!$G$3 +  F11*'Tiền '!$H$3 + G11*'Tiền '!$I$3 + H11*'Tiền '!$J$3 + I11*'Tiền '!$K$3 + J11*'Tiền '!$L$3 + K11*'Tiền '!$M$3 + L11*'Tiền '!$N$3 + M11*'Tiền '!$O$3 + N11*'Tiền '!$P$3 + O11*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.5">
+    <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="4">
         <v>45240</v>
       </c>
@@ -5692,16 +5718,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>C12*'Tiền '!$E$4 + D12*'Tiền '!$F$4 + E12*'Tiền '!$G$4 +  F12*'Tiền '!$H$4 + G12*'Tiền '!$I$4 + H12*'Tiền '!$J$4 + I12*'Tiền '!$K$4 + J12*'Tiền '!$L$4 + K12*'Tiền '!$M$4 + L12*'Tiền '!$N$4 + M12*'Tiền '!$O$4 + N12*'Tiền '!$P$4 + O12*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="64">
         <f>C12*'Tiền '!$E$3 + D12*'Tiền '!$F$3 + E12*'Tiền '!$G$3 +  F12*'Tiền '!$H$3 + G12*'Tiền '!$I$3 + H12*'Tiền '!$J$3 + I12*'Tiền '!$K$3 + J12*'Tiền '!$L$3 + K12*'Tiền '!$M$3 + L12*'Tiền '!$N$3 + M12*'Tiền '!$O$3 + N12*'Tiền '!$P$3 + O12*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.5">
+    <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="4">
         <v>45241</v>
       </c>
@@ -5726,16 +5752,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>C13*'Tiền '!$E$4 + D13*'Tiền '!$F$4 + E13*'Tiền '!$G$4 +  F13*'Tiền '!$H$4 + G13*'Tiền '!$I$4 + H13*'Tiền '!$J$4 + I13*'Tiền '!$K$4 + J13*'Tiền '!$L$4 + K13*'Tiền '!$M$4 + L13*'Tiền '!$N$4 + M13*'Tiền '!$O$4 + N13*'Tiền '!$P$4 + O13*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="64">
         <f>C13*'Tiền '!$E$3 + D13*'Tiền '!$F$3 + E13*'Tiền '!$G$3 +  F13*'Tiền '!$H$3 + G13*'Tiền '!$I$3 + H13*'Tiền '!$J$3 + I13*'Tiền '!$K$3 + J13*'Tiền '!$L$3 + K13*'Tiền '!$M$3 + L13*'Tiền '!$N$3 + M13*'Tiền '!$O$3 + N13*'Tiền '!$P$3 + O13*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.5">
+    <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="4">
         <v>45242</v>
       </c>
@@ -5760,16 +5786,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>C14*'Tiền '!$E$4 + D14*'Tiền '!$F$4 + E14*'Tiền '!$G$4 +  F14*'Tiền '!$H$4 + G14*'Tiền '!$I$4 + H14*'Tiền '!$J$4 + I14*'Tiền '!$K$4 + J14*'Tiền '!$L$4 + K14*'Tiền '!$M$4 + L14*'Tiền '!$N$4 + M14*'Tiền '!$O$4 + N14*'Tiền '!$P$4 + O14*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="64">
         <f>C14*'Tiền '!$E$3 + D14*'Tiền '!$F$3 + E14*'Tiền '!$G$3 +  F14*'Tiền '!$H$3 + G14*'Tiền '!$I$3 + H14*'Tiền '!$J$3 + I14*'Tiền '!$K$3 + J14*'Tiền '!$L$3 + K14*'Tiền '!$M$3 + L14*'Tiền '!$N$3 + M14*'Tiền '!$O$3 + N14*'Tiền '!$P$3 + O14*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.5">
+    <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="4">
         <v>45243</v>
       </c>
@@ -5794,16 +5820,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>C15*'Tiền '!$E$4 + D15*'Tiền '!$F$4 + E15*'Tiền '!$G$4 +  F15*'Tiền '!$H$4 + G15*'Tiền '!$I$4 + H15*'Tiền '!$J$4 + I15*'Tiền '!$K$4 + J15*'Tiền '!$L$4 + K15*'Tiền '!$M$4 + L15*'Tiền '!$N$4 + M15*'Tiền '!$O$4 + N15*'Tiền '!$P$4 + O15*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="64">
         <f>C15*'Tiền '!$E$3 + D15*'Tiền '!$F$3 + E15*'Tiền '!$G$3 +  F15*'Tiền '!$H$3 + G15*'Tiền '!$I$3 + H15*'Tiền '!$J$3 + I15*'Tiền '!$K$3 + J15*'Tiền '!$L$3 + K15*'Tiền '!$M$3 + L15*'Tiền '!$N$3 + M15*'Tiền '!$O$3 + N15*'Tiền '!$P$3 + O15*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.5">
+    <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="4">
         <v>45244</v>
       </c>
@@ -5828,16 +5854,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>C16*'Tiền '!$E$4 + D16*'Tiền '!$F$4 + E16*'Tiền '!$G$4 +  F16*'Tiền '!$H$4 + G16*'Tiền '!$I$4 + H16*'Tiền '!$J$4 + I16*'Tiền '!$K$4 + J16*'Tiền '!$L$4 + K16*'Tiền '!$M$4 + L16*'Tiền '!$N$4 + M16*'Tiền '!$O$4 + N16*'Tiền '!$P$4 + O16*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="64">
         <f>C16*'Tiền '!$E$3 + D16*'Tiền '!$F$3 + E16*'Tiền '!$G$3 +  F16*'Tiền '!$H$3 + G16*'Tiền '!$I$3 + H16*'Tiền '!$J$3 + I16*'Tiền '!$K$3 + J16*'Tiền '!$L$3 + K16*'Tiền '!$M$3 + L16*'Tiền '!$N$3 + M16*'Tiền '!$O$3 + N16*'Tiền '!$P$3 + O16*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.5">
+    <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="4">
         <v>45245</v>
       </c>
@@ -5862,16 +5888,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>C17*'Tiền '!$E$4 + D17*'Tiền '!$F$4 + E17*'Tiền '!$G$4 +  F17*'Tiền '!$H$4 + G17*'Tiền '!$I$4 + H17*'Tiền '!$J$4 + I17*'Tiền '!$K$4 + J17*'Tiền '!$L$4 + K17*'Tiền '!$M$4 + L17*'Tiền '!$N$4 + M17*'Tiền '!$O$4 + N17*'Tiền '!$P$4 + O17*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="64">
         <f>C17*'Tiền '!$E$3 + D17*'Tiền '!$F$3 + E17*'Tiền '!$G$3 +  F17*'Tiền '!$H$3 + G17*'Tiền '!$I$3 + H17*'Tiền '!$J$3 + I17*'Tiền '!$K$3 + J17*'Tiền '!$L$3 + K17*'Tiền '!$M$3 + L17*'Tiền '!$N$3 + M17*'Tiền '!$O$3 + N17*'Tiền '!$P$3 + O17*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.5">
+    <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="4">
         <v>45246</v>
       </c>
@@ -5896,16 +5922,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>C18*'Tiền '!$E$4 + D18*'Tiền '!$F$4 + E18*'Tiền '!$G$4 +  F18*'Tiền '!$H$4 + G18*'Tiền '!$I$4 + H18*'Tiền '!$J$4 + I18*'Tiền '!$K$4 + J18*'Tiền '!$L$4 + K18*'Tiền '!$M$4 + L18*'Tiền '!$N$4 + M18*'Tiền '!$O$4 + N18*'Tiền '!$P$4 + O18*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R18" s="68">
+      <c r="R18" s="64">
         <f>C18*'Tiền '!$E$3 + D18*'Tiền '!$F$3 + E18*'Tiền '!$G$3 +  F18*'Tiền '!$H$3 + G18*'Tiền '!$I$3 + H18*'Tiền '!$J$3 + I18*'Tiền '!$K$3 + J18*'Tiền '!$L$3 + K18*'Tiền '!$M$3 + L18*'Tiền '!$N$3 + M18*'Tiền '!$O$3 + N18*'Tiền '!$P$3 + O18*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.5">
+    <row r="19" spans="1:18" ht="18.75">
       <c r="A19" s="4">
         <v>45247</v>
       </c>
@@ -5930,16 +5956,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>C19*'Tiền '!$E$4 + D19*'Tiền '!$F$4 + E19*'Tiền '!$G$4 +  F19*'Tiền '!$H$4 + G19*'Tiền '!$I$4 + H19*'Tiền '!$J$4 + I19*'Tiền '!$K$4 + J19*'Tiền '!$L$4 + K19*'Tiền '!$M$4 + L19*'Tiền '!$N$4 + M19*'Tiền '!$O$4 + N19*'Tiền '!$P$4 + O19*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="64">
         <f>C19*'Tiền '!$E$3 + D19*'Tiền '!$F$3 + E19*'Tiền '!$G$3 +  F19*'Tiền '!$H$3 + G19*'Tiền '!$I$3 + H19*'Tiền '!$J$3 + I19*'Tiền '!$K$3 + J19*'Tiền '!$L$3 + K19*'Tiền '!$M$3 + L19*'Tiền '!$N$3 + M19*'Tiền '!$O$3 + N19*'Tiền '!$P$3 + O19*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.5">
+    <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="4">
         <v>45248</v>
       </c>
@@ -5964,16 +5990,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>C20*'Tiền '!$E$4 + D20*'Tiền '!$F$4 + E20*'Tiền '!$G$4 +  F20*'Tiền '!$H$4 + G20*'Tiền '!$I$4 + H20*'Tiền '!$J$4 + I20*'Tiền '!$K$4 + J20*'Tiền '!$L$4 + K20*'Tiền '!$M$4 + L20*'Tiền '!$N$4 + M20*'Tiền '!$O$4 + N20*'Tiền '!$P$4 + O20*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R20" s="68">
+      <c r="R20" s="64">
         <f>C20*'Tiền '!$E$3 + D20*'Tiền '!$F$3 + E20*'Tiền '!$G$3 +  F20*'Tiền '!$H$3 + G20*'Tiền '!$I$3 + H20*'Tiền '!$J$3 + I20*'Tiền '!$K$3 + J20*'Tiền '!$L$3 + K20*'Tiền '!$M$3 + L20*'Tiền '!$N$3 + M20*'Tiền '!$O$3 + N20*'Tiền '!$P$3 + O20*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.5">
+    <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="4">
         <v>45249</v>
       </c>
@@ -5998,16 +6024,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>C21*'Tiền '!$E$4 + D21*'Tiền '!$F$4 + E21*'Tiền '!$G$4 +  F21*'Tiền '!$H$4 + G21*'Tiền '!$I$4 + H21*'Tiền '!$J$4 + I21*'Tiền '!$K$4 + J21*'Tiền '!$L$4 + K21*'Tiền '!$M$4 + L21*'Tiền '!$N$4 + M21*'Tiền '!$O$4 + N21*'Tiền '!$P$4 + O21*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R21" s="68">
+      <c r="R21" s="64">
         <f>C21*'Tiền '!$E$3 + D21*'Tiền '!$F$3 + E21*'Tiền '!$G$3 +  F21*'Tiền '!$H$3 + G21*'Tiền '!$I$3 + H21*'Tiền '!$J$3 + I21*'Tiền '!$K$3 + J21*'Tiền '!$L$3 + K21*'Tiền '!$M$3 + L21*'Tiền '!$N$3 + M21*'Tiền '!$O$3 + N21*'Tiền '!$P$3 + O21*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.5">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="4">
         <v>45250</v>
       </c>
@@ -6032,16 +6058,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>C22*'Tiền '!$E$4 + D22*'Tiền '!$F$4 + E22*'Tiền '!$G$4 +  F22*'Tiền '!$H$4 + G22*'Tiền '!$I$4 + H22*'Tiền '!$J$4 + I22*'Tiền '!$K$4 + J22*'Tiền '!$L$4 + K22*'Tiền '!$M$4 + L22*'Tiền '!$N$4 + M22*'Tiền '!$O$4 + N22*'Tiền '!$P$4 + O22*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R22" s="68">
+      <c r="R22" s="64">
         <f>C22*'Tiền '!$E$3 + D22*'Tiền '!$F$3 + E22*'Tiền '!$G$3 +  F22*'Tiền '!$H$3 + G22*'Tiền '!$I$3 + H22*'Tiền '!$J$3 + I22*'Tiền '!$K$3 + J22*'Tiền '!$L$3 + K22*'Tiền '!$M$3 + L22*'Tiền '!$N$3 + M22*'Tiền '!$O$3 + N22*'Tiền '!$P$3 + O22*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.5">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="4">
         <v>45251</v>
       </c>
@@ -6066,16 +6092,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>C23*'Tiền '!$E$4 + D23*'Tiền '!$F$4 + E23*'Tiền '!$G$4 +  F23*'Tiền '!$H$4 + G23*'Tiền '!$I$4 + H23*'Tiền '!$J$4 + I23*'Tiền '!$K$4 + J23*'Tiền '!$L$4 + K23*'Tiền '!$M$4 + L23*'Tiền '!$N$4 + M23*'Tiền '!$O$4 + N23*'Tiền '!$P$4 + O23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R23" s="68">
+      <c r="R23" s="64">
         <f>C23*'Tiền '!$E$3 + D23*'Tiền '!$F$3 + E23*'Tiền '!$G$3 +  F23*'Tiền '!$H$3 + G23*'Tiền '!$I$3 + H23*'Tiền '!$J$3 + I23*'Tiền '!$K$3 + J23*'Tiền '!$L$3 + K23*'Tiền '!$M$3 + L23*'Tiền '!$N$3 + M23*'Tiền '!$O$3 + N23*'Tiền '!$P$3 + O23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.5">
+    <row r="24" spans="1:18" ht="18.75">
       <c r="A24" s="4">
         <v>45252</v>
       </c>
@@ -6100,16 +6126,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>C24*'Tiền '!$E$4 + D24*'Tiền '!$F$4 + E24*'Tiền '!$G$4 +  F24*'Tiền '!$H$4 + G24*'Tiền '!$I$4 + H24*'Tiền '!$J$4 + I24*'Tiền '!$K$4 + J24*'Tiền '!$L$4 + K24*'Tiền '!$M$4 + L24*'Tiền '!$N$4 + M24*'Tiền '!$O$4 + N24*'Tiền '!$P$4 + O24*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R24" s="68">
+      <c r="R24" s="64">
         <f>C24*'Tiền '!$E$3 + D24*'Tiền '!$F$3 + E24*'Tiền '!$G$3 +  F24*'Tiền '!$H$3 + G24*'Tiền '!$I$3 + H24*'Tiền '!$J$3 + I24*'Tiền '!$K$3 + J24*'Tiền '!$L$3 + K24*'Tiền '!$M$3 + L24*'Tiền '!$N$3 + M24*'Tiền '!$O$3 + N24*'Tiền '!$P$3 + O24*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.5">
+    <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="4">
         <v>45253</v>
       </c>
@@ -6134,16 +6160,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>C25*'Tiền '!$E$4 + D25*'Tiền '!$F$4 + E25*'Tiền '!$G$4 +  F25*'Tiền '!$H$4 + G25*'Tiền '!$I$4 + H25*'Tiền '!$J$4 + I25*'Tiền '!$K$4 + J25*'Tiền '!$L$4 + K25*'Tiền '!$M$4 + L25*'Tiền '!$N$4 + M25*'Tiền '!$O$4 + N25*'Tiền '!$P$4 + O25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R25" s="68">
+      <c r="R25" s="64">
         <f>C25*'Tiền '!$E$3 + D25*'Tiền '!$F$3 + E25*'Tiền '!$G$3 +  F25*'Tiền '!$H$3 + G25*'Tiền '!$I$3 + H25*'Tiền '!$J$3 + I25*'Tiền '!$K$3 + J25*'Tiền '!$L$3 + K25*'Tiền '!$M$3 + L25*'Tiền '!$N$3 + M25*'Tiền '!$O$3 + N25*'Tiền '!$P$3 + O25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.5">
+    <row r="26" spans="1:18" ht="18.75">
       <c r="A26" s="4">
         <v>45254</v>
       </c>
@@ -6168,16 +6194,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>C26*'Tiền '!$E$4 + D26*'Tiền '!$F$4 + E26*'Tiền '!$G$4 +  F26*'Tiền '!$H$4 + G26*'Tiền '!$I$4 + H26*'Tiền '!$J$4 + I26*'Tiền '!$K$4 + J26*'Tiền '!$L$4 + K26*'Tiền '!$M$4 + L26*'Tiền '!$N$4 + M26*'Tiền '!$O$4 + N26*'Tiền '!$P$4 + O26*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R26" s="68">
+      <c r="R26" s="64">
         <f>C26*'Tiền '!$E$3 + D26*'Tiền '!$F$3 + E26*'Tiền '!$G$3 +  F26*'Tiền '!$H$3 + G26*'Tiền '!$I$3 + H26*'Tiền '!$J$3 + I26*'Tiền '!$K$3 + J26*'Tiền '!$L$3 + K26*'Tiền '!$M$3 + L26*'Tiền '!$N$3 + M26*'Tiền '!$O$3 + N26*'Tiền '!$P$3 + O26*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18.5">
+    <row r="27" spans="1:18" ht="18.75">
       <c r="A27" s="4">
         <v>45255</v>
       </c>
@@ -6202,16 +6228,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>C27*'Tiền '!$E$4 + D27*'Tiền '!$F$4 + E27*'Tiền '!$G$4 +  F27*'Tiền '!$H$4 + G27*'Tiền '!$I$4 + H27*'Tiền '!$J$4 + I27*'Tiền '!$K$4 + J27*'Tiền '!$L$4 + K27*'Tiền '!$M$4 + L27*'Tiền '!$N$4 + M27*'Tiền '!$O$4 + N27*'Tiền '!$P$4 + O27*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R27" s="68">
+      <c r="R27" s="64">
         <f>C27*'Tiền '!$E$3 + D27*'Tiền '!$F$3 + E27*'Tiền '!$G$3 +  F27*'Tiền '!$H$3 + G27*'Tiền '!$I$3 + H27*'Tiền '!$J$3 + I27*'Tiền '!$K$3 + J27*'Tiền '!$L$3 + K27*'Tiền '!$M$3 + L27*'Tiền '!$N$3 + M27*'Tiền '!$O$3 + N27*'Tiền '!$P$3 + O27*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.5">
+    <row r="28" spans="1:18" ht="18.75">
       <c r="A28" s="4">
         <v>45256</v>
       </c>
@@ -6236,16 +6262,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>C28*'Tiền '!$E$4 + D28*'Tiền '!$F$4 + E28*'Tiền '!$G$4 +  F28*'Tiền '!$H$4 + G28*'Tiền '!$I$4 + H28*'Tiền '!$J$4 + I28*'Tiền '!$K$4 + J28*'Tiền '!$L$4 + K28*'Tiền '!$M$4 + L28*'Tiền '!$N$4 + M28*'Tiền '!$O$4 + N28*'Tiền '!$P$4 + O28*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R28" s="68">
+      <c r="R28" s="64">
         <f>C28*'Tiền '!$E$3 + D28*'Tiền '!$F$3 + E28*'Tiền '!$G$3 +  F28*'Tiền '!$H$3 + G28*'Tiền '!$I$3 + H28*'Tiền '!$J$3 + I28*'Tiền '!$K$3 + J28*'Tiền '!$L$3 + K28*'Tiền '!$M$3 + L28*'Tiền '!$N$3 + M28*'Tiền '!$O$3 + N28*'Tiền '!$P$3 + O28*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18.5">
+    <row r="29" spans="1:18" ht="18.75">
       <c r="A29" s="4">
         <v>45257</v>
       </c>
@@ -6270,16 +6296,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>C29*'Tiền '!$E$4 + D29*'Tiền '!$F$4 + E29*'Tiền '!$G$4 +  F29*'Tiền '!$H$4 + G29*'Tiền '!$I$4 + H29*'Tiền '!$J$4 + I29*'Tiền '!$K$4 + J29*'Tiền '!$L$4 + K29*'Tiền '!$M$4 + L29*'Tiền '!$N$4 + M29*'Tiền '!$O$4 + N29*'Tiền '!$P$4 + O29*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R29" s="68">
+      <c r="R29" s="64">
         <f>C29*'Tiền '!$E$3 + D29*'Tiền '!$F$3 + E29*'Tiền '!$G$3 +  F29*'Tiền '!$H$3 + G29*'Tiền '!$I$3 + H29*'Tiền '!$J$3 + I29*'Tiền '!$K$3 + J29*'Tiền '!$L$3 + K29*'Tiền '!$M$3 + L29*'Tiền '!$N$3 + M29*'Tiền '!$O$3 + N29*'Tiền '!$P$3 + O29*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18.5">
+    <row r="30" spans="1:18" ht="18.75">
       <c r="A30" s="4">
         <v>45258</v>
       </c>
@@ -6304,16 +6330,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>C30*'Tiền '!$E$4 + D30*'Tiền '!$F$4 + E30*'Tiền '!$G$4 +  F30*'Tiền '!$H$4 + G30*'Tiền '!$I$4 + H30*'Tiền '!$J$4 + I30*'Tiền '!$K$4 + J30*'Tiền '!$L$4 + K30*'Tiền '!$M$4 + L30*'Tiền '!$N$4 + M30*'Tiền '!$O$4 + N30*'Tiền '!$P$4 + O30*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R30" s="68">
+      <c r="R30" s="64">
         <f>C30*'Tiền '!$E$3 + D30*'Tiền '!$F$3 + E30*'Tiền '!$G$3 +  F30*'Tiền '!$H$3 + G30*'Tiền '!$I$3 + H30*'Tiền '!$J$3 + I30*'Tiền '!$K$3 + J30*'Tiền '!$L$3 + K30*'Tiền '!$M$3 + L30*'Tiền '!$N$3 + M30*'Tiền '!$O$3 + N30*'Tiền '!$P$3 + O30*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18.5">
+    <row r="31" spans="1:18" ht="18.75">
       <c r="A31" s="4">
         <v>45259</v>
       </c>
@@ -6338,16 +6364,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>C31*'Tiền '!$E$4 + D31*'Tiền '!$F$4 + E31*'Tiền '!$G$4 +  F31*'Tiền '!$H$4 + G31*'Tiền '!$I$4 + H31*'Tiền '!$J$4 + I31*'Tiền '!$K$4 + J31*'Tiền '!$L$4 + K31*'Tiền '!$M$4 + L31*'Tiền '!$N$4 + M31*'Tiền '!$O$4 + N31*'Tiền '!$P$4 + O31*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R31" s="68">
+      <c r="R31" s="64">
         <f>C31*'Tiền '!$E$3 + D31*'Tiền '!$F$3 + E31*'Tiền '!$G$3 +  F31*'Tiền '!$H$3 + G31*'Tiền '!$I$3 + H31*'Tiền '!$J$3 + I31*'Tiền '!$K$3 + J31*'Tiền '!$L$3 + K31*'Tiền '!$M$3 + L31*'Tiền '!$N$3 + M31*'Tiền '!$O$3 + N31*'Tiền '!$P$3 + O31*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18.5">
+    <row r="32" spans="1:18" ht="18.75">
       <c r="A32" s="4">
         <v>45260</v>
       </c>
@@ -6372,18 +6398,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>C32*'Tiền '!$E$4 + D32*'Tiền '!$F$4 + E32*'Tiền '!$G$4 +  F32*'Tiền '!$H$4 + G32*'Tiền '!$I$4 + H32*'Tiền '!$J$4 + I32*'Tiền '!$K$4 + J32*'Tiền '!$L$4 + K32*'Tiền '!$M$4 + L32*'Tiền '!$N$4 + M32*'Tiền '!$O$4 + N32*'Tiền '!$P$4 + O32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="R32" s="68">
+      <c r="R32" s="64">
         <f>C32*'Tiền '!$E$3 + D32*'Tiền '!$F$3 + E32*'Tiền '!$G$3 +  F32*'Tiền '!$H$3 + G32*'Tiền '!$I$3 + H32*'Tiền '!$J$3 + I32*'Tiền '!$K$3 + J32*'Tiền '!$L$3 + K32*'Tiền '!$M$3 + L32*'Tiền '!$N$3 + M32*'Tiền '!$O$3 + N32*'Tiền '!$P$3 + O32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18.5">
+    <row r="33" spans="1:18" ht="18.75">
       <c r="A33" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B33" s="59">
         <f t="shared" ref="B33:O33" si="1">SUM(B3:B32)</f>
@@ -6441,15 +6467,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P33" s="70">
-        <f t="shared" ref="P33" si="2">SUM(C33:O33)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="69">
+      <c r="P33" s="66">
+        <f>SUM(C33:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="65">
         <f>SUM(Q3:Q32)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="69">
+      <c r="R33" s="65">
         <f>SUM(R3:R32)</f>
         <v>0</v>
       </c>
@@ -6467,96 +6493,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="9"/>
-    <col min="3" max="3" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="9" customWidth="1"/>
-    <col min="7" max="14" width="15.26953125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9" customWidth="1"/>
+    <col min="7" max="14" width="15.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6580,11 +6607,11 @@
         <f>SUM(B3:N3)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6610,11 +6637,11 @@
         <f>SUM(B4:N4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6640,11 +6667,11 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6670,11 +6697,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6700,11 +6727,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6730,11 +6757,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6760,11 +6787,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6790,11 +6817,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6820,11 +6847,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6850,11 +6877,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6880,11 +6907,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6910,11 +6937,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6940,11 +6967,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -6970,11 +6997,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7000,11 +7027,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7030,11 +7057,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7060,11 +7087,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7090,11 +7117,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7120,11 +7147,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7150,11 +7177,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7180,11 +7207,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7210,11 +7237,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7240,11 +7267,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7270,11 +7297,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7300,11 +7327,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7330,11 +7357,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7360,11 +7387,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7390,11 +7417,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7420,11 +7447,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7450,11 +7477,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -7480,18 +7507,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -7549,11 +7576,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="69">
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
         <v>0</v>
       </c>
@@ -7571,22 +7598,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743F7309-D6EF-4604-A5EF-7F5023CB98D5}">
   <dimension ref="A1:Q5815"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:Q34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="25.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="25.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
       <c r="A1" s="61" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -7607,55 +7635,55 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="54" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -7697,11 +7725,11 @@
         <f>SUM(B3:N3)</f>
         <v>30</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>328467.47322323063</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>189532.5267767694</v>
       </c>
@@ -7751,11 +7779,11 @@
         <f>SUM(B4:N4)</f>
         <v>31</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>335708.0843915235</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>213291.9156084765</v>
       </c>
@@ -7801,11 +7829,11 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>28</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>293977.13564439322</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>212022.86435560678</v>
       </c>
@@ -7843,11 +7871,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>256757.92257125996</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>141242.07742874004</v>
       </c>
@@ -7885,11 +7913,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>312872.39198814274</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>170127.60801185723</v>
       </c>
@@ -7927,11 +7955,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>59684.166495121244</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>33315.833504878756</v>
       </c>
@@ -7967,11 +7995,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>219066.96578698172</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>119933.03421301824</v>
       </c>
@@ -8009,11 +8037,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>242172.06661451684</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>126827.93338548315</v>
       </c>
@@ -8051,11 +8079,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>384523.02166961721</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>220476.97833038276</v>
       </c>
@@ -8093,11 +8121,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>270296.6772064172</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>144703.32279358283</v>
       </c>
@@ -8135,11 +8163,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>321855.60407317441</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>193144.39592682559</v>
       </c>
@@ -8167,11 +8195,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>185148.94808349456</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>129851.05191650543</v>
       </c>
@@ -8197,11 +8225,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8227,11 +8255,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8257,11 +8285,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8287,11 +8315,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8317,11 +8345,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8347,11 +8375,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8377,11 +8405,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8407,11 +8435,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8437,11 +8465,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8467,11 +8495,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8497,11 +8525,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8527,11 +8555,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8557,11 +8585,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8587,11 +8615,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8617,11 +8645,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8647,11 +8675,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8677,11 +8705,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8707,11 +8735,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -8737,18 +8765,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -8806,11 +8834,11 @@
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
         <v>3210530.4577478729</v>
       </c>
-      <c r="Q34" s="69">
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
         <v>1894469.5422521268</v>
       </c>
@@ -14606,90 +14634,91 @@
   <dimension ref="A1:Q5863"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:Q31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="25.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="25.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14731,11 +14760,11 @@
         <f>SUM(B3:N3)</f>
         <v>48</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>529630.11052132165</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>293369.88947867835</v>
       </c>
@@ -14785,11 +14814,11 @@
         <f>SUM(B4:N4)</f>
         <v>51</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>543429.338265019</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>334570.66173498088</v>
       </c>
@@ -14835,11 +14864,11 @@
         <f>SUM(B5:N5)</f>
         <v>38</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>385912.51447157143</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>272087.48552842851</v>
       </c>
@@ -14875,11 +14904,11 @@
         <f>SUM(B6:N6)</f>
         <v>46</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>493557.45518547483</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>271442.54481452511</v>
       </c>
@@ -14917,11 +14946,11 @@
         <f t="shared" ref="O7:O30" si="0">SUM(B7:N7)</f>
         <v>49</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>531583.2106166028</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>282416.7893833972</v>
       </c>
@@ -14955,11 +14984,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>361490.86615340272</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>211509.13384659725</v>
       </c>
@@ -14995,11 +15024,11 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>494241.83030727215</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>263758.16969272785</v>
       </c>
@@ -15025,11 +15054,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -15067,11 +15096,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>385049.93854556925</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>207950.06145443072</v>
       </c>
@@ -15107,11 +15136,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>444678.11290433252</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>244321.88709566745</v>
       </c>
@@ -15147,11 +15176,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>392913.48821826058</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>212086.51178173933</v>
       </c>
@@ -15187,11 +15216,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>434291.48223475646</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>237708.51776524354</v>
       </c>
@@ -15229,11 +15258,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>444995.33794447407</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>241004.66205552581</v>
       </c>
@@ -15269,16 +15298,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>367270.84869694099</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>202729.15130305901</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.5">
+    <row r="17" spans="1:17" ht="20.25">
       <c r="A17" s="4">
         <v>44972</v>
       </c>
@@ -15307,11 +15336,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>280181.61341896874</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>153818.3865810312</v>
       </c>
@@ -15347,11 +15376,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>554035.23692480824</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>292964.76307519182</v>
       </c>
@@ -15387,11 +15416,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>388486.8716428561</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>210513.12835714387</v>
       </c>
@@ -15425,11 +15454,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>443374.11601959728</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>246625.88398040266</v>
       </c>
@@ -15463,11 +15492,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>428732.56896811997</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>232267.43103188003</v>
       </c>
@@ -15505,11 +15534,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>377972.09381475835</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>205027.90618524159</v>
       </c>
@@ -15545,11 +15574,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>352533.32172313938</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>183466.67827686059</v>
       </c>
@@ -15587,11 +15616,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>472160.89983119926</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>244839.10016880074</v>
       </c>
@@ -15617,11 +15646,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -15655,11 +15684,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>441485.64947095391</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>227514.35052904609</v>
       </c>
@@ -15693,11 +15722,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>359794.84869694099</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>201205.15130305904</v>
       </c>
@@ -15735,11 +15764,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>570914.75479984074</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>307085.2452001592</v>
       </c>
@@ -15777,11 +15806,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>467427.79039894597</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>258572.20960105403</v>
       </c>
@@ -15815,80 +15844,80 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>380321.62439787551</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>195678.37560212443</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B31" s="59">
-        <f t="shared" ref="B31" si="1">SUM(B3:B30)</f>
+        <f t="shared" ref="B31:G31" si="1">SUM(B3:B30)</f>
         <v>70</v>
       </c>
       <c r="C31" s="59">
-        <f t="shared" ref="C31" si="2">SUM(C3:C30)</f>
+        <f t="shared" si="1"/>
         <v>391</v>
       </c>
       <c r="D31" s="59">
-        <f t="shared" ref="D31" si="3">SUM(D3:D30)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="E31" s="59">
-        <f t="shared" ref="E31" si="4">SUM(E3:E30)</f>
+        <f t="shared" si="1"/>
         <v>369</v>
       </c>
       <c r="F31" s="59">
-        <f t="shared" ref="F31" si="5">SUM(F3:F30)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="G31" s="59">
-        <f t="shared" ref="G31" si="6">SUM(G3:G30)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="H31" s="59">
-        <f t="shared" ref="H31:O31" si="7">SUM(H3:H30)</f>
+        <f t="shared" ref="H31:O31" si="2">SUM(H3:H30)</f>
         <v>4</v>
       </c>
       <c r="I31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O31" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1055</v>
       </c>
-      <c r="P31" s="69">
+      <c r="P31" s="65">
         <f>SUM(P3:P30)</f>
         <v>11326465.924173005</v>
       </c>
-      <c r="Q31" s="69">
+      <c r="Q31" s="65">
         <f>SUM(Q3:Q30)</f>
         <v>6234534.075826996</v>
       </c>
@@ -21738,90 +21767,91 @@
   <dimension ref="A1:Q5586"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:Q34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="25.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="25.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -21863,11 +21893,11 @@
         <f>SUM(B3:N3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>36400.643368838333</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>23599.356631161667</v>
       </c>
@@ -21917,11 +21947,11 @@
         <f>SUM(B4:N4)</f>
         <v>33</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>363477.34647175192</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>225522.65352824813</v>
       </c>
@@ -21967,11 +21997,11 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>35</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>356183.7603304651</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>251816.2396695349</v>
       </c>
@@ -22009,11 +22039,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>262023.91658775578</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>145976.08341224422</v>
       </c>
@@ -22051,11 +22081,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>216619.12728670042</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>123380.87271329958</v>
       </c>
@@ -22093,11 +22123,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>198360.50185955234</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>117639.49814044767</v>
       </c>
@@ -22135,11 +22165,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>334471.15784923208</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>190528.84215076786</v>
       </c>
@@ -22177,11 +22207,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>339484.99921775283</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>182515.00078224711</v>
       </c>
@@ -22219,11 +22249,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>340043.48035461869</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>189956.51964538134</v>
       </c>
@@ -22261,11 +22291,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>184211.42709319718</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>110788.57290680283</v>
       </c>
@@ -22303,11 +22333,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>336693.91772681737</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>207306.08227318266</v>
       </c>
@@ -22345,11 +22375,11 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>459071.64324042428</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>255928.35675957569</v>
       </c>
@@ -22387,11 +22417,11 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>249371.12343035941</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>155628.87656964059</v>
       </c>
@@ -22429,11 +22459,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>228196.52243127889</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>109803.47756872111</v>
       </c>
@@ -22471,11 +22501,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>331528.67646534095</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>194471.32353465902</v>
       </c>
@@ -22513,11 +22543,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>318979.29590898479</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>187020.70409101516</v>
       </c>
@@ -22555,11 +22585,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>247767.59957182262</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>139232.40042817738</v>
       </c>
@@ -22597,11 +22627,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>231055.28853939369</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>121944.71146060631</v>
       </c>
@@ -22639,11 +22669,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>429287.34392797836</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>228712.65607202164</v>
       </c>
@@ -22681,11 +22711,11 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>421976.69817612914</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>268023.30182387086</v>
       </c>
@@ -22723,11 +22753,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>375999.48346988345</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>209000.51653011653</v>
       </c>
@@ -22765,11 +22795,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>335443.6126778925</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>188556.38732210739</v>
       </c>
@@ -22807,11 +22837,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>353378.69941125606</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>195621.30058874388</v>
       </c>
@@ -22849,11 +22879,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>318613.47224395128</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>172386.52775604872</v>
       </c>
@@ -22891,11 +22921,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>347095.47150287509</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>200904.52849712491</v>
       </c>
@@ -22933,11 +22963,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>389504.72834067541</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>196495.27165932453</v>
       </c>
@@ -22975,11 +23005,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>407533.96460674924</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>212466.03539325073</v>
       </c>
@@ -23017,11 +23047,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>314454.99110708549</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>165545.00889291451</v>
       </c>
@@ -23059,11 +23089,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>313709.30787599325</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>175290.69212400675</v>
       </c>
@@ -23089,11 +23119,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
@@ -23119,18 +23149,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -23188,11 +23218,11 @@
         <f t="shared" si="1"/>
         <v>847</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
         <v>9040938.2010747567</v>
       </c>
-      <c r="Q34" s="69">
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
         <v>5146061.7989252433</v>
       </c>
@@ -28761,99 +28791,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:Q33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="9"/>
-    <col min="3" max="3" width="14.54296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="9" customWidth="1"/>
-    <col min="7" max="14" width="15.26953125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9" customWidth="1"/>
+    <col min="7" max="14" width="15.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45017</v>
       </c>
@@ -28892,16 +28923,16 @@
         <f>SUM(B3:N3)</f>
         <v>30</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>328467.47322323063</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>189532.5267767694</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45018</v>
       </c>
@@ -28946,16 +28977,16 @@
         <f>SUM(B4:N4)</f>
         <v>31</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>335708.0843915235</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>213291.9156084765</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45019</v>
       </c>
@@ -28996,16 +29027,16 @@
         <f t="shared" ref="O5:O32" si="0">SUM(B5:N5)</f>
         <v>28</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>293977.13564439322</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>212022.86435560678</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45020</v>
       </c>
@@ -29038,16 +29069,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>256757.92257125996</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>141242.07742874004</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45021</v>
       </c>
@@ -29080,16 +29111,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>312872.39198814274</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>170127.60801185723</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45022</v>
       </c>
@@ -29122,16 +29153,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>59684.166495121244</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>33315.833504878756</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45023</v>
       </c>
@@ -29162,16 +29193,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>219066.96578698172</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>119933.03421301824</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45024</v>
       </c>
@@ -29204,16 +29235,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>242172.06661451684</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>126827.93338548315</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45025</v>
       </c>
@@ -29246,16 +29277,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>384523.02166961721</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>220476.97833038276</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45026</v>
       </c>
@@ -29288,16 +29319,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>270296.6772064172</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>144703.32279358283</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45027</v>
       </c>
@@ -29330,16 +29361,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>321855.60407317441</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>193144.39592682559</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45028</v>
       </c>
@@ -29362,16 +29393,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>185148.94808349456</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>129851.05191650543</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45029</v>
       </c>
@@ -29392,16 +29423,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45030</v>
       </c>
@@ -29422,16 +29453,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.5">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="4">
         <v>45031</v>
       </c>
@@ -29452,16 +29483,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45032</v>
       </c>
@@ -29482,16 +29513,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45033</v>
       </c>
@@ -29512,16 +29543,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45034</v>
       </c>
@@ -29542,16 +29573,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45035</v>
       </c>
@@ -29572,16 +29603,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45036</v>
       </c>
@@ -29602,16 +29633,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45037</v>
       </c>
@@ -29632,16 +29663,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45038</v>
       </c>
@@ -29662,16 +29693,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45039</v>
       </c>
@@ -29692,16 +29723,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45040</v>
       </c>
@@ -29722,16 +29753,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45041</v>
       </c>
@@ -29752,16 +29783,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45042</v>
       </c>
@@ -29782,16 +29813,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45043</v>
       </c>
@@ -29812,16 +29843,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45044</v>
       </c>
@@ -29842,16 +29873,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45045</v>
       </c>
@@ -29872,16 +29903,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45046</v>
       </c>
@@ -29902,18 +29933,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B33" s="59">
         <f t="shared" ref="B33:O33" si="1">SUM(B3:B32)</f>
@@ -29971,11 +30002,11 @@
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="P33" s="69">
+      <c r="P33" s="65">
         <f>SUM(P3:P32)</f>
         <v>3210530.4577478729</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="65">
         <f>SUM(Q3:Q32)</f>
         <v>1894469.5422521268</v>
       </c>
@@ -29994,93 +30025,94 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="16.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45047</v>
       </c>
@@ -30119,16 +30151,16 @@
         <f>SUM(B3:N3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>36400.643368838333</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>23599.356631161667</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45048</v>
       </c>
@@ -30173,16 +30205,16 @@
         <f>SUM(B4:N4)</f>
         <v>33</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>363477.34647175192</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>225522.65352824813</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45049</v>
       </c>
@@ -30223,16 +30255,16 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>35</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>356183.7603304651</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>251816.2396695349</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45050</v>
       </c>
@@ -30265,16 +30297,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>262023.91658775578</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>145976.08341224422</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45051</v>
       </c>
@@ -30307,16 +30339,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>216619.12728670042</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>123380.87271329958</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45052</v>
       </c>
@@ -30349,16 +30381,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>198360.50185955234</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>117639.49814044767</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45053</v>
       </c>
@@ -30391,16 +30423,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>334471.15784923208</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>190528.84215076786</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45054</v>
       </c>
@@ -30433,16 +30465,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>339484.99921775283</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>182515.00078224711</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45055</v>
       </c>
@@ -30475,16 +30507,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>340043.48035461869</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>189956.51964538134</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45056</v>
       </c>
@@ -30517,16 +30549,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>184211.42709319718</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>110788.57290680283</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45057</v>
       </c>
@@ -30559,16 +30591,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>336693.91772681737</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>207306.08227318266</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45058</v>
       </c>
@@ -30601,16 +30633,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>459071.64324042428</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>255928.35675957569</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45059</v>
       </c>
@@ -30643,16 +30675,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>249371.12343035941</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>155628.87656964059</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45060</v>
       </c>
@@ -30685,16 +30717,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>228196.52243127889</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>109803.47756872111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.5">
+    <row r="17" spans="1:17" ht="18.75">
       <c r="A17" s="4">
         <v>45061</v>
       </c>
@@ -30727,16 +30759,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>331528.67646534095</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>194471.32353465902</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45062</v>
       </c>
@@ -30769,16 +30801,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>318979.29590898479</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>187020.70409101516</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45063</v>
       </c>
@@ -30811,16 +30843,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>247767.59957182262</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>139232.40042817738</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45064</v>
       </c>
@@ -30853,16 +30885,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>231055.28853939369</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>121944.71146060631</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45065</v>
       </c>
@@ -30895,16 +30927,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>429287.34392797836</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>228712.65607202164</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45066</v>
       </c>
@@ -30937,16 +30969,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>421976.69817612914</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>268023.30182387086</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45067</v>
       </c>
@@ -30979,16 +31011,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>375999.48346988345</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>209000.51653011653</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45068</v>
       </c>
@@ -31021,16 +31053,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>335443.6126778925</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>188556.38732210739</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45069</v>
       </c>
@@ -31063,16 +31095,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>353378.69941125606</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>195621.30058874388</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45070</v>
       </c>
@@ -31105,16 +31137,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>318613.47224395128</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>172386.52775604872</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45071</v>
       </c>
@@ -31147,16 +31179,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>347095.47150287509</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>200904.52849712491</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45072</v>
       </c>
@@ -31189,16 +31221,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>389504.72834067541</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>196495.27165932453</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45073</v>
       </c>
@@ -31231,16 +31263,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>407533.96460674924</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>212466.03539325073</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45074</v>
       </c>
@@ -31273,16 +31305,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>314454.99110708549</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>165545.00889291451</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45075</v>
       </c>
@@ -31315,16 +31347,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>313709.30787599325</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>175290.69212400675</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45076</v>
       </c>
@@ -31345,16 +31377,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="4">
         <v>45077</v>
       </c>
@@ -31375,18 +31407,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.5">
+    <row r="34" spans="1:17" ht="18.75">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -31444,11 +31476,11 @@
         <f t="shared" si="1"/>
         <v>847</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
         <v>9040938.2010747567</v>
       </c>
-      <c r="Q34" s="69">
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
         <v>5146061.7989252433</v>
       </c>
@@ -31467,93 +31499,94 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:Q33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="16.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45078</v>
       </c>
@@ -31580,16 +31613,16 @@
         <f>SUM(B3:N3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>36400.643368838333</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>23599.356631161667</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45079</v>
       </c>
@@ -31622,16 +31655,16 @@
         <f>SUM(B4:N4)</f>
         <v>8</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>88456.804456847996</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>71543.195543152004</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45080</v>
       </c>
@@ -31660,16 +31693,16 @@
         <f t="shared" ref="O5:O32" si="0">SUM(B5:N5)</f>
         <v>10</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>98109.244376741175</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>101890.75562325882</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45081</v>
       </c>
@@ -31690,16 +31723,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45082</v>
       </c>
@@ -31732,16 +31765,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>394997.18890581466</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>222002.81109418531</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45083</v>
       </c>
@@ -31772,16 +31805,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>325838.54701030644</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>183161.45298969356</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45084</v>
       </c>
@@ -31810,16 +31843,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>286165.16145854775</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>155834.83854145225</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45085</v>
       </c>
@@ -31850,16 +31883,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>450077.1943952681</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>234922.80560473193</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45086</v>
       </c>
@@ -31892,16 +31925,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>320765.61341896874</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>167234.3865810312</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45087</v>
       </c>
@@ -31934,16 +31967,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>300284.54463611782</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>147715.45536388215</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45088</v>
       </c>
@@ -31976,16 +32009,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>354255.01692124002</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>179744.98307875992</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45089</v>
       </c>
@@ -32016,16 +32049,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>383566.10840298078</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>189433.89159701925</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45090</v>
       </c>
@@ -32058,16 +32091,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>450184.56847406912</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>246815.43152593085</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45091</v>
       </c>
@@ -32098,16 +32131,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>237473.44405560818</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>129526.55594439185</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.5">
+    <row r="17" spans="1:17" ht="20.25">
       <c r="A17" s="4">
         <v>45092</v>
       </c>
@@ -32140,16 +32173,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>298840.69130058872</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>166159.30869941128</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45093</v>
       </c>
@@ -32182,16 +32215,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>397288.40771542664</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>220711.5922845733</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45094</v>
       </c>
@@ -32222,16 +32255,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>192813.89102062662</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>107186.10897937338</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45095</v>
       </c>
@@ -32264,16 +32297,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>309353.14949153934</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>176646.85050846066</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45096</v>
       </c>
@@ -32304,16 +32337,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>201832.05538858467</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>106167.94461141533</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45097</v>
       </c>
@@ -32346,16 +32379,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>334460.70826299972</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>178539.29173700028</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45098</v>
       </c>
@@ -32376,16 +32409,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45099</v>
       </c>
@@ -32414,16 +32447,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>313367.00806949643</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>166632.99193050351</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45100</v>
       </c>
@@ -32454,16 +32487,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>294414.07472518424</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>164585.92527481576</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45101</v>
       </c>
@@ -32496,16 +32529,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>381047.17481164308</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>212952.82518835686</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45102</v>
       </c>
@@ -32538,16 +32571,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>311338.85255328199</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>163661.14744671798</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45103</v>
       </c>
@@ -32578,16 +32611,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>404985.03002731001</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>218014.96997268996</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45104</v>
       </c>
@@ -32618,16 +32651,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>377569.32172313938</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>203430.67827686059</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45105</v>
       </c>
@@ -32660,16 +32693,16 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>433053.47002072266</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>267946.52997927729</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45106</v>
       </c>
@@ -32700,16 +32733,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>408025.78154720244</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>245974.21845279756</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45107</v>
       </c>
@@ -32742,18 +32775,18 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>432019.79326718539</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>237980.20673281458</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B33" s="59">
         <f t="shared" ref="B33:O33" si="1">SUM(B3:B32)</f>
@@ -32811,11 +32844,11 @@
         <f t="shared" si="1"/>
         <v>815</v>
       </c>
-      <c r="P33" s="69">
+      <c r="P33" s="65">
         <f>SUM(P3:P32)</f>
         <v>8816983.4898062814</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="65">
         <f>SUM(Q3:Q32)</f>
         <v>4890016.5101937186</v>
       </c>
@@ -32834,93 +32867,94 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:Q34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="16.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45108</v>
       </c>
@@ -32959,16 +32993,16 @@
         <f>SUM(B3:N3)</f>
         <v>48</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>529630.11052132165</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>293369.88947867835</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45109</v>
       </c>
@@ -33013,16 +33047,16 @@
         <f>SUM(B4:N4)</f>
         <v>51</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>543429.338265019</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>334570.66173498088</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45110</v>
       </c>
@@ -33063,16 +33097,16 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>38</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>385912.51447157143</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>272087.48552842851</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45111</v>
       </c>
@@ -33103,16 +33137,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>493557.45518547483</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>271442.54481452511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45112</v>
       </c>
@@ -33145,16 +33179,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>531583.2106166028</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>282416.7893833972</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45113</v>
       </c>
@@ -33183,16 +33217,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>361490.86615340272</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>211509.13384659725</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45114</v>
       </c>
@@ -33223,16 +33257,16 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>494241.83030727215</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>263758.16969272785</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45115</v>
       </c>
@@ -33253,16 +33287,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45116</v>
       </c>
@@ -33295,16 +33329,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>385049.93854556925</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>207950.06145443072</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45117</v>
       </c>
@@ -33335,16 +33369,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>444678.11290433252</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>244321.88709566745</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45118</v>
       </c>
@@ -33375,16 +33409,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>392913.48821826058</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>212086.51178173933</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45119</v>
       </c>
@@ -33415,16 +33449,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>434291.48223475646</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>237708.51776524354</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45120</v>
       </c>
@@ -33457,16 +33491,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>444995.33794447407</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>241004.66205552581</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45121</v>
       </c>
@@ -33497,16 +33531,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>367270.84869694099</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>202729.15130305901</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.5">
+    <row r="17" spans="1:17" ht="20.25">
       <c r="A17" s="4">
         <v>45122</v>
       </c>
@@ -33535,16 +33569,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>280181.61341896874</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>153818.3865810312</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45123</v>
       </c>
@@ -33575,16 +33609,16 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>554035.23692480824</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>292964.76307519182</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45124</v>
       </c>
@@ -33615,16 +33649,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>388486.8716428561</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>210513.12835714387</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45125</v>
       </c>
@@ -33653,16 +33687,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>443374.11601959728</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>246625.88398040266</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45126</v>
       </c>
@@ -33691,16 +33725,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>428732.56896811997</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>232267.43103188003</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45127</v>
       </c>
@@ -33733,16 +33767,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>377972.09381475835</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>205027.90618524159</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45128</v>
       </c>
@@ -33773,16 +33807,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>352533.32172313938</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>183466.67827686059</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45129</v>
       </c>
@@ -33815,16 +33849,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>472160.89983119926</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>244839.10016880074</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45130</v>
       </c>
@@ -33845,16 +33879,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45131</v>
       </c>
@@ -33883,16 +33917,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>441485.64947095391</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>227514.35052904609</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45132</v>
       </c>
@@ -33921,16 +33955,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>359794.84869694099</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>201205.15130305904</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45133</v>
       </c>
@@ -33963,16 +33997,16 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>570914.75479984074</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>307085.2452001592</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45134</v>
       </c>
@@ -34005,16 +34039,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>467427.79039894597</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>258572.20960105403</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45135</v>
       </c>
@@ -34043,16 +34077,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>380321.62439787551</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>195678.37560212443</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45136</v>
       </c>
@@ -34085,16 +34119,16 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>547985.51255026285</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>291014.48744973727</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45137</v>
       </c>
@@ -34127,16 +34161,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>601002.60452605435</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>327997.39547394565</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="4">
         <v>45138</v>
       </c>
@@ -34169,18 +34203,18 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>436210.88860526704</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>228789.1113947329</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.5">
+    <row r="34" spans="1:17" ht="18.75">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -34261,93 +34295,94 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" customWidth="1"/>
-    <col min="16" max="17" width="20.6328125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="14.453125" style="9"/>
+    <col min="2" max="14" width="16.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="9" customWidth="1"/>
+    <col min="18" max="30" width="14.42578125" style="9" customWidth="1"/>
+    <col min="31" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:17" ht="15.95" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="62"/>
       <c r="Q1" s="62"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75">
       <c r="A3" s="4">
         <v>45139</v>
       </c>
@@ -34386,16 +34421,16 @@
         <f>SUM(B3:N3)</f>
         <v>52</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="64">
         <f>B3*'Tiền '!$E$4 + C3*'Tiền '!$F$4 + D3*'Tiền '!$G$4 +  E3*'Tiền '!$H$4 + F3*'Tiền '!$I$4 + G3*'Tiền '!$J$4 + H3*'Tiền '!$K$4 + I3*'Tiền '!$L$4 + J3*'Tiền '!$M$4 + K3*'Tiền '!$N$4 + L3*'Tiền '!$O$4 + M3*'Tiền '!$P$4 + N3*'Tiền '!$Q$4</f>
         <v>568879.54532720079</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="64">
         <f>B3*'Tiền '!$E$3 + C3*'Tiền '!$F$3 + D3*'Tiền '!$G$3 +  E3*'Tiền '!$H$3 + F3*'Tiền '!$I$3 + G3*'Tiền '!$J$3 + H3*'Tiền '!$K$3 + I3*'Tiền '!$L$3 + J3*'Tiền '!$M$3 + K3*'Tiền '!$N$3 + L3*'Tiền '!$O$3 + M3*'Tiền '!$P$3 + N3*'Tiền '!$Q$3</f>
         <v>305120.45467279915</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5">
+    <row r="4" spans="1:17" ht="18.75">
       <c r="A4" s="4">
         <v>45140</v>
       </c>
@@ -34440,16 +34475,16 @@
         <f>SUM(B4:N4)</f>
         <v>44</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="64">
         <f>B4*'Tiền '!$E$4 + C4*'Tiền '!$F$4 + D4*'Tiền '!$G$4 +  E4*'Tiền '!$H$4 + F4*'Tiền '!$I$4 + G4*'Tiền '!$J$4 + H4*'Tiền '!$K$4 + I4*'Tiền '!$L$4 + J4*'Tiền '!$M$4 + K4*'Tiền '!$N$4 + L4*'Tiền '!$O$4 + M4*'Tiền '!$P$4 + N4*'Tiền '!$Q$4</f>
         <v>446508.10847650026</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="64">
         <f>B4*'Tiền '!$E$3 + C4*'Tiền '!$F$3 + D4*'Tiền '!$G$3 +  E4*'Tiền '!$H$3 + F4*'Tiền '!$I$3 + G4*'Tiền '!$J$3 + H4*'Tiền '!$K$3 + I4*'Tiền '!$L$3 + J4*'Tiền '!$M$3 + K4*'Tiền '!$N$3 + L4*'Tiền '!$O$3 + M4*'Tiền '!$P$3 + N4*'Tiền '!$Q$3</f>
         <v>282491.89152349974</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5">
+    <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="4">
         <v>45141</v>
       </c>
@@ -34488,16 +34523,16 @@
         <f t="shared" ref="O5:O33" si="0">SUM(B5:N5)</f>
         <v>59</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="64">
         <f>B5*'Tiền '!$E$4 + C5*'Tiền '!$F$4 + D5*'Tiền '!$G$4 +  E5*'Tiền '!$H$4 + F5*'Tiền '!$I$4 + G5*'Tiền '!$J$4 + H5*'Tiền '!$K$4 + I5*'Tiền '!$L$4 + J5*'Tiền '!$M$4 + K5*'Tiền '!$N$4 + L5*'Tiền '!$O$4 + M5*'Tiền '!$P$4 + N5*'Tiền '!$Q$4</f>
         <v>624103.52664443443</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="64">
         <f>B5*'Tiền '!$E$3 + C5*'Tiền '!$F$3 + D5*'Tiền '!$G$3 +  E5*'Tiền '!$H$3 + F5*'Tiền '!$I$3 + G5*'Tiền '!$J$3 + H5*'Tiền '!$K$3 + I5*'Tiền '!$L$3 + J5*'Tiền '!$M$3 + K5*'Tiền '!$N$3 + L5*'Tiền '!$O$3 + M5*'Tiền '!$P$3 + N5*'Tiền '!$Q$3</f>
         <v>379896.47335556569</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5">
+    <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="4">
         <v>45142</v>
       </c>
@@ -34528,16 +34563,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="P6" s="68">
+      <c r="P6" s="64">
         <f>B6*'Tiền '!$E$4 + C6*'Tiền '!$F$4 + D6*'Tiền '!$G$4 +  E6*'Tiền '!$H$4 + F6*'Tiền '!$I$4 + G6*'Tiền '!$J$4 + H6*'Tiền '!$K$4 + I6*'Tiền '!$L$4 + J6*'Tiền '!$M$4 + K6*'Tiền '!$N$4 + L6*'Tiền '!$O$4 + M6*'Tiền '!$P$4 + N6*'Tiền '!$Q$4</f>
         <v>366122.84869694099</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="64">
         <f>B6*'Tiền '!$E$3 + C6*'Tiền '!$F$3 + D6*'Tiền '!$G$3 +  E6*'Tiền '!$H$3 + F6*'Tiền '!$I$3 + G6*'Tiền '!$J$3 + H6*'Tiền '!$K$3 + I6*'Tiền '!$L$3 + J6*'Tiền '!$M$3 + K6*'Tiền '!$N$3 + L6*'Tiền '!$O$3 + M6*'Tiền '!$P$3 + N6*'Tiền '!$Q$3</f>
         <v>206877.15130305904</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.5">
+    <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="4">
         <v>45143</v>
       </c>
@@ -34570,16 +34605,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="64">
         <f>B7*'Tiền '!$E$4 + C7*'Tiền '!$F$4 + D7*'Tiền '!$G$4 +  E7*'Tiền '!$H$4 + F7*'Tiền '!$I$4 + G7*'Tiền '!$J$4 + H7*'Tiền '!$K$4 + I7*'Tiền '!$L$4 + J7*'Tiền '!$M$4 + K7*'Tiền '!$N$4 + L7*'Tiền '!$O$4 + M7*'Tiền '!$P$4 + N7*'Tiền '!$Q$4</f>
         <v>449563.03838500282</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="64">
         <f>B7*'Tiền '!$E$3 + C7*'Tiền '!$F$3 + D7*'Tiền '!$G$3 +  E7*'Tiền '!$H$3 + F7*'Tiền '!$I$3 + G7*'Tiền '!$J$3 + H7*'Tiền '!$K$3 + I7*'Tiền '!$L$3 + J7*'Tiền '!$M$3 + K7*'Tiền '!$N$3 + L7*'Tiền '!$O$3 + M7*'Tiền '!$P$3 + N7*'Tiền '!$Q$3</f>
         <v>248436.96161499721</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5">
+    <row r="8" spans="1:17" ht="18.75">
       <c r="A8" s="4">
         <v>45144</v>
       </c>
@@ -34612,16 +34647,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="64">
         <f>B8*'Tiền '!$E$4 + C8*'Tiền '!$F$4 + D8*'Tiền '!$G$4 +  E8*'Tiền '!$H$4 + F8*'Tiền '!$I$4 + G8*'Tiền '!$J$4 + H8*'Tiền '!$K$4 + I8*'Tiền '!$L$4 + J8*'Tiền '!$M$4 + K8*'Tiền '!$N$4 + L8*'Tiền '!$O$4 + M8*'Tiền '!$P$4 + N8*'Tiền '!$Q$4</f>
         <v>561582.46384508756</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="64">
         <f>B8*'Tiền '!$E$3 + C8*'Tiền '!$F$3 + D8*'Tiền '!$G$3 +  E8*'Tiền '!$H$3 + F8*'Tiền '!$I$3 + G8*'Tiền '!$J$3 + H8*'Tiền '!$K$3 + I8*'Tiền '!$L$3 + J8*'Tiền '!$M$3 + K8*'Tiền '!$N$3 + L8*'Tiền '!$O$3 + M8*'Tiền '!$P$3 + N8*'Tiền '!$Q$3</f>
         <v>286417.53615491238</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.5">
+    <row r="9" spans="1:17" ht="18.75">
       <c r="A9" s="4">
         <v>45145</v>
       </c>
@@ -34654,16 +34689,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="64">
         <f>B9*'Tiền '!$E$4 + C9*'Tiền '!$F$4 + D9*'Tiền '!$G$4 +  E9*'Tiền '!$H$4 + F9*'Tiền '!$I$4 + G9*'Tiền '!$J$4 + H9*'Tiền '!$K$4 + I9*'Tiền '!$L$4 + J9*'Tiền '!$M$4 + K9*'Tiền '!$N$4 + L9*'Tiền '!$O$4 + M9*'Tiền '!$P$4 + N9*'Tiền '!$Q$4</f>
         <v>475250.729479737</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="64">
         <f>B9*'Tiền '!$E$3 + C9*'Tiền '!$F$3 + D9*'Tiền '!$G$3 +  E9*'Tiền '!$H$3 + F9*'Tiền '!$I$3 + G9*'Tiền '!$J$3 + H9*'Tiền '!$K$3 + I9*'Tiền '!$L$3 + J9*'Tiền '!$M$3 + K9*'Tiền '!$N$3 + L9*'Tiền '!$O$3 + M9*'Tiền '!$P$3 + N9*'Tiền '!$Q$3</f>
         <v>258749.27052026294</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.5">
+    <row r="10" spans="1:17" ht="18.75">
       <c r="A10" s="4">
         <v>45146</v>
       </c>
@@ -34696,16 +34731,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="64">
         <f>B10*'Tiền '!$E$4 + C10*'Tiền '!$F$4 + D10*'Tiền '!$G$4 +  E10*'Tiền '!$H$4 + F10*'Tiền '!$I$4 + G10*'Tiền '!$J$4 + H10*'Tiền '!$K$4 + I10*'Tiền '!$L$4 + J10*'Tiền '!$M$4 + K10*'Tiền '!$N$4 + L10*'Tiền '!$O$4 + M10*'Tiền '!$P$4 + N10*'Tiền '!$Q$4</f>
         <v>528623.98270822188</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="64">
         <f>B10*'Tiền '!$E$3 + C10*'Tiền '!$F$3 + D10*'Tiền '!$G$3 +  E10*'Tiền '!$H$3 + F10*'Tiền '!$I$3 + G10*'Tiền '!$J$3 + H10*'Tiền '!$K$3 + I10*'Tiền '!$L$3 + J10*'Tiền '!$M$3 + K10*'Tiền '!$N$3 + L10*'Tiền '!$O$3 + M10*'Tiền '!$P$3 + N10*'Tiền '!$Q$3</f>
         <v>284376.01729177823</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.5">
+    <row r="11" spans="1:17" ht="18.75">
       <c r="A11" s="4">
         <v>45147</v>
       </c>
@@ -34736,16 +34771,16 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="64">
         <f>B11*'Tiền '!$E$4 + C11*'Tiền '!$F$4 + D11*'Tiền '!$G$4 +  E11*'Tiền '!$H$4 + F11*'Tiền '!$I$4 + G11*'Tiền '!$J$4 + H11*'Tiền '!$K$4 + I11*'Tiền '!$L$4 + J11*'Tiền '!$M$4 + K11*'Tiền '!$N$4 + L11*'Tiền '!$O$4 + M11*'Tiền '!$P$4 + N11*'Tiền '!$Q$4</f>
         <v>601057.23568968114</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="64">
         <f>B11*'Tiền '!$E$3 + C11*'Tiền '!$F$3 + D11*'Tiền '!$G$3 +  E11*'Tiền '!$H$3 + F11*'Tiền '!$I$3 + G11*'Tiền '!$J$3 + H11*'Tiền '!$K$3 + I11*'Tiền '!$L$3 + J11*'Tiền '!$M$3 + K11*'Tiền '!$N$3 + L11*'Tiền '!$O$3 + M11*'Tiền '!$P$3 + N11*'Tiền '!$Q$3</f>
         <v>305942.7643103188</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.5">
+    <row r="12" spans="1:17" ht="18.75">
       <c r="A12" s="4">
         <v>45148</v>
       </c>
@@ -34778,16 +34813,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="64">
         <f>B12*'Tiền '!$E$4 + C12*'Tiền '!$F$4 + D12*'Tiền '!$G$4 +  E12*'Tiền '!$H$4 + F12*'Tiền '!$I$4 + G12*'Tiền '!$J$4 + H12*'Tiền '!$K$4 + I12*'Tiền '!$L$4 + J12*'Tiền '!$M$4 + K12*'Tiền '!$N$4 + L12*'Tiền '!$O$4 + M12*'Tiền '!$P$4 + N12*'Tiền '!$Q$4</f>
         <v>494177.48747718439</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="64">
         <f>B12*'Tiền '!$E$3 + C12*'Tiền '!$F$3 + D12*'Tiền '!$G$3 +  E12*'Tiền '!$H$3 + F12*'Tiền '!$I$3 + G12*'Tiền '!$J$3 + H12*'Tiền '!$K$3 + I12*'Tiền '!$L$3 + J12*'Tiền '!$M$3 + K12*'Tiền '!$N$3 + L12*'Tiền '!$O$3 + M12*'Tiền '!$P$3 + N12*'Tiền '!$Q$3</f>
         <v>269822.51252281555</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.5">
+    <row r="13" spans="1:17" ht="18.75">
       <c r="A13" s="4">
         <v>45149</v>
       </c>
@@ -34820,16 +34855,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="64">
         <f>B13*'Tiền '!$E$4 + C13*'Tiền '!$F$4 + D13*'Tiền '!$G$4 +  E13*'Tiền '!$H$4 + F13*'Tiền '!$I$4 + G13*'Tiền '!$J$4 + H13*'Tiền '!$K$4 + I13*'Tiền '!$L$4 + J13*'Tiền '!$M$4 + K13*'Tiền '!$N$4 + L13*'Tiền '!$O$4 + M13*'Tiền '!$P$4 + N13*'Tiền '!$Q$4</f>
         <v>505921.65397230559</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="64">
         <f>B13*'Tiền '!$E$3 + C13*'Tiền '!$F$3 + D13*'Tiền '!$G$3 +  E13*'Tiền '!$H$3 + F13*'Tiền '!$I$3 + G13*'Tiền '!$J$3 + H13*'Tiền '!$K$3 + I13*'Tiền '!$L$3 + J13*'Tiền '!$M$3 + K13*'Tiền '!$N$3 + L13*'Tiền '!$O$3 + M13*'Tiền '!$P$3 + N13*'Tiền '!$Q$3</f>
         <v>279078.34602769435</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.5">
+    <row r="14" spans="1:17" ht="18.75">
       <c r="A14" s="4">
         <v>45150</v>
       </c>
@@ -34862,16 +34897,16 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="64">
         <f>B14*'Tiền '!$E$4 + C14*'Tiền '!$F$4 + D14*'Tiền '!$G$4 +  E14*'Tiền '!$H$4 + F14*'Tiền '!$I$4 + G14*'Tiền '!$J$4 + H14*'Tiền '!$K$4 + I14*'Tiền '!$L$4 + J14*'Tiền '!$M$4 + K14*'Tiền '!$N$4 + L14*'Tiền '!$O$4 + M14*'Tiền '!$P$4 + N14*'Tiền '!$Q$4</f>
         <v>664531.41652599943</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="64">
         <f>B14*'Tiền '!$E$3 + C14*'Tiền '!$F$3 + D14*'Tiền '!$G$3 +  E14*'Tiền '!$H$3 + F14*'Tiền '!$I$3 + G14*'Tiền '!$J$3 + H14*'Tiền '!$K$3 + I14*'Tiền '!$L$3 + J14*'Tiền '!$M$3 + K14*'Tiền '!$N$3 + L14*'Tiền '!$O$3 + M14*'Tiền '!$P$3 + N14*'Tiền '!$Q$3</f>
         <v>352468.58347400057</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="4">
         <v>45151</v>
       </c>
@@ -34904,16 +34939,16 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="64">
         <f>B15*'Tiền '!$E$4 + C15*'Tiền '!$F$4 + D15*'Tiền '!$G$4 +  E15*'Tiền '!$H$4 + F15*'Tiền '!$I$4 + G15*'Tiền '!$J$4 + H15*'Tiền '!$K$4 + I15*'Tiền '!$L$4 + J15*'Tiền '!$M$4 + K15*'Tiền '!$N$4 + L15*'Tiền '!$O$4 + M15*'Tiền '!$P$4 + N15*'Tiền '!$Q$4</f>
         <v>618968.14321983885</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="64">
         <f>B15*'Tiền '!$E$3 + C15*'Tiền '!$F$3 + D15*'Tiền '!$G$3 +  E15*'Tiền '!$H$3 + F15*'Tiền '!$I$3 + G15*'Tiền '!$J$3 + H15*'Tiền '!$K$3 + I15*'Tiền '!$L$3 + J15*'Tiền '!$M$3 + K15*'Tiền '!$N$3 + L15*'Tiền '!$O$3 + M15*'Tiền '!$P$3 + N15*'Tiền '!$Q$3</f>
         <v>333031.85678016109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="4">
         <v>45152</v>
       </c>
@@ -34946,16 +34981,16 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="64">
         <f>B16*'Tiền '!$E$4 + C16*'Tiền '!$F$4 + D16*'Tiền '!$G$4 +  E16*'Tiền '!$H$4 + F16*'Tiền '!$I$4 + G16*'Tiền '!$J$4 + H16*'Tiền '!$K$4 + I16*'Tiền '!$L$4 + J16*'Tiền '!$M$4 + K16*'Tiền '!$N$4 + L16*'Tiền '!$O$4 + M16*'Tiền '!$P$4 + N16*'Tiền '!$Q$4</f>
         <v>480249.04338040535</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="64">
         <f>B16*'Tiền '!$E$3 + C16*'Tiền '!$F$3 + D16*'Tiền '!$G$3 +  E16*'Tiền '!$H$3 + F16*'Tiền '!$I$3 + G16*'Tiền '!$J$3 + H16*'Tiền '!$K$3 + I16*'Tiền '!$L$3 + J16*'Tiền '!$M$3 + K16*'Tiền '!$N$3 + L16*'Tiền '!$O$3 + M16*'Tiền '!$P$3 + N16*'Tiền '!$Q$3</f>
         <v>264750.95661959465</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="20.5">
+    <row r="17" spans="1:17" ht="20.25">
       <c r="A17" s="4">
         <v>45153</v>
       </c>
@@ -34988,16 +35023,16 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="64">
         <f>B17*'Tiền '!$E$4 + C17*'Tiền '!$F$4 + D17*'Tiền '!$G$4 +  E17*'Tiền '!$H$4 + F17*'Tiền '!$I$4 + G17*'Tiền '!$J$4 + H17*'Tiền '!$K$4 + I17*'Tiền '!$L$4 + J17*'Tiền '!$M$4 + K17*'Tiền '!$N$4 + L17*'Tiền '!$O$4 + M17*'Tiền '!$P$4 + N17*'Tiền '!$Q$4</f>
         <v>539620.75766808016</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="64">
         <f>B17*'Tiền '!$E$3 + C17*'Tiền '!$F$3 + D17*'Tiền '!$G$3 +  E17*'Tiền '!$H$3 + F17*'Tiền '!$I$3 + G17*'Tiền '!$J$3 + H17*'Tiền '!$K$3 + I17*'Tiền '!$L$3 + J17*'Tiền '!$M$3 + K17*'Tiền '!$N$3 + L17*'Tiền '!$O$3 + M17*'Tiền '!$P$3 + N17*'Tiền '!$Q$3</f>
         <v>288379.24233191984</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="18.5">
+    <row r="18" spans="1:17" ht="18.75">
       <c r="A18" s="4">
         <v>45154</v>
       </c>
@@ -35030,16 +35065,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P18" s="68">
+      <c r="P18" s="64">
         <f>B18*'Tiền '!$E$4 + C18*'Tiền '!$F$4 + D18*'Tiền '!$G$4 +  E18*'Tiền '!$H$4 + F18*'Tiền '!$I$4 + G18*'Tiền '!$J$4 + H18*'Tiền '!$K$4 + I18*'Tiền '!$L$4 + J18*'Tiền '!$M$4 + K18*'Tiền '!$N$4 + L18*'Tiền '!$O$4 + M18*'Tiền '!$P$4 + N18*'Tiền '!$Q$4</f>
         <v>494188.12699850416</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="64">
         <f>B18*'Tiền '!$E$3 + C18*'Tiền '!$F$3 + D18*'Tiền '!$G$3 +  E18*'Tiền '!$H$3 + F18*'Tiền '!$I$3 + G18*'Tiền '!$J$3 + H18*'Tiền '!$K$3 + I18*'Tiền '!$L$3 + J18*'Tiền '!$M$3 + K18*'Tiền '!$N$3 + L18*'Tiền '!$O$3 + M18*'Tiền '!$P$3 + N18*'Tiền '!$Q$3</f>
         <v>268811.8730014959</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.5">
+    <row r="19" spans="1:17" ht="18.75">
       <c r="A19" s="4">
         <v>45155</v>
       </c>
@@ -35070,16 +35105,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="64">
         <f>B19*'Tiền '!$E$4 + C19*'Tiền '!$F$4 + D19*'Tiền '!$G$4 +  E19*'Tiền '!$H$4 + F19*'Tiền '!$I$4 + G19*'Tiền '!$J$4 + H19*'Tiền '!$K$4 + I19*'Tiền '!$L$4 + J19*'Tiền '!$M$4 + K19*'Tiền '!$N$4 + L19*'Tiền '!$O$4 + M19*'Tiền '!$P$4 + N19*'Tiền '!$Q$4</f>
         <v>450754.41557906871</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="64">
         <f>B19*'Tiền '!$E$3 + C19*'Tiền '!$F$3 + D19*'Tiền '!$G$3 +  E19*'Tiền '!$H$3 + F19*'Tiền '!$I$3 + G19*'Tiền '!$J$3 + H19*'Tiền '!$K$3 + I19*'Tiền '!$L$3 + J19*'Tiền '!$M$3 + K19*'Tiền '!$N$3 + L19*'Tiền '!$O$3 + M19*'Tiền '!$P$3 + N19*'Tiền '!$Q$3</f>
         <v>233245.58442093129</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="18.5">
+    <row r="20" spans="1:17" ht="18.75">
       <c r="A20" s="4">
         <v>45156</v>
       </c>
@@ -35112,16 +35147,16 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="64">
         <f>B20*'Tiền '!$E$4 + C20*'Tiền '!$F$4 + D20*'Tiền '!$G$4 +  E20*'Tiền '!$H$4 + F20*'Tiền '!$I$4 + G20*'Tiền '!$J$4 + H20*'Tiền '!$K$4 + I20*'Tiền '!$L$4 + J20*'Tiền '!$M$4 + K20*'Tiền '!$N$4 + L20*'Tiền '!$O$4 + M20*'Tiền '!$P$4 + N20*'Tiền '!$Q$4</f>
         <v>605101.83742983791</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="64">
         <f>B20*'Tiền '!$E$3 + C20*'Tiền '!$F$3 + D20*'Tiền '!$G$3 +  E20*'Tiền '!$H$3 + F20*'Tiền '!$I$3 + G20*'Tiền '!$J$3 + H20*'Tiền '!$K$3 + I20*'Tiền '!$L$3 + J20*'Tiền '!$M$3 + K20*'Tiền '!$N$3 + L20*'Tiền '!$O$3 + M20*'Tiền '!$P$3 + N20*'Tiền '!$Q$3</f>
         <v>326898.16257016215</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="18.5">
+    <row r="21" spans="1:17" ht="18.75">
       <c r="A21" s="4">
         <v>45157</v>
       </c>
@@ -35152,16 +35187,16 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="64">
         <f>B21*'Tiền '!$E$4 + C21*'Tiền '!$F$4 + D21*'Tiền '!$G$4 +  E21*'Tiền '!$H$4 + F21*'Tiền '!$I$4 + G21*'Tiền '!$J$4 + H21*'Tiền '!$K$4 + I21*'Tiền '!$L$4 + J21*'Tiền '!$M$4 + K21*'Tiền '!$N$4 + L21*'Tiền '!$O$4 + M21*'Tiền '!$P$4 + N21*'Tiền '!$Q$4</f>
         <v>529838.28251471859</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="64">
         <f>B21*'Tiền '!$E$3 + C21*'Tiền '!$F$3 + D21*'Tiền '!$G$3 +  E21*'Tiền '!$H$3 + F21*'Tiền '!$I$3 + G21*'Tiền '!$J$3 + H21*'Tiền '!$K$3 + I21*'Tiền '!$L$3 + J21*'Tiền '!$M$3 + K21*'Tiền '!$N$3 + L21*'Tiền '!$O$3 + M21*'Tiền '!$P$3 + N21*'Tiền '!$Q$3</f>
         <v>286161.71748528141</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.5">
+    <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="4">
         <v>45158</v>
       </c>
@@ -35194,16 +35229,16 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="64">
         <f>B22*'Tiền '!$E$4 + C22*'Tiền '!$F$4 + D22*'Tiền '!$G$4 +  E22*'Tiền '!$H$4 + F22*'Tiền '!$I$4 + G22*'Tiền '!$J$4 + H22*'Tiền '!$K$4 + I22*'Tiền '!$L$4 + J22*'Tiền '!$M$4 + K22*'Tiền '!$N$4 + L22*'Tiền '!$O$4 + M22*'Tiền '!$P$4 + N22*'Tiền '!$Q$4</f>
         <v>703419.11958774203</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="64">
         <f>B22*'Tiền '!$E$3 + C22*'Tiền '!$F$3 + D22*'Tiền '!$G$3 +  E22*'Tiền '!$H$3 + F22*'Tiền '!$I$3 + G22*'Tiền '!$J$3 + H22*'Tiền '!$K$3 + I22*'Tiền '!$L$3 + J22*'Tiền '!$M$3 + K22*'Tiền '!$N$3 + L22*'Tiền '!$O$3 + M22*'Tiền '!$P$3 + N22*'Tiền '!$Q$3</f>
         <v>365580.88041225797</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18.5">
+    <row r="23" spans="1:17" ht="18.75">
       <c r="A23" s="4">
         <v>45159</v>
       </c>
@@ -35234,16 +35269,16 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="64">
         <f>B23*'Tiền '!$E$4 + C23*'Tiền '!$F$4 + D23*'Tiền '!$G$4 +  E23*'Tiền '!$H$4 + F23*'Tiền '!$I$4 + G23*'Tiền '!$J$4 + H23*'Tiền '!$K$4 + I23*'Tiền '!$L$4 + J23*'Tiền '!$M$4 + K23*'Tiền '!$N$4 + L23*'Tiền '!$O$4 + M23*'Tiền '!$P$4 + N23*'Tiền '!$Q$4</f>
         <v>482495.50157135603</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="64">
         <f>B23*'Tiền '!$E$3 + C23*'Tiền '!$F$3 + D23*'Tiền '!$G$3 +  E23*'Tiền '!$H$3 + F23*'Tiền '!$I$3 + G23*'Tiền '!$J$3 + H23*'Tiền '!$K$3 + I23*'Tiền '!$L$3 + J23*'Tiền '!$M$3 + K23*'Tiền '!$N$3 + L23*'Tiền '!$O$3 + M23*'Tiền '!$P$3 + N23*'Tiền '!$Q$3</f>
         <v>268504.49842864397</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18.5">
+    <row r="24" spans="1:17" ht="18.75">
       <c r="A24" s="4">
         <v>45160</v>
       </c>
@@ -35274,16 +35309,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="64">
         <f>B24*'Tiền '!$E$4 + C24*'Tiền '!$F$4 + D24*'Tiền '!$G$4 +  E24*'Tiền '!$H$4 + F24*'Tiền '!$I$4 + G24*'Tiền '!$J$4 + H24*'Tiền '!$K$4 + I24*'Tiền '!$L$4 + J24*'Tiền '!$M$4 + K24*'Tiền '!$N$4 + L24*'Tiền '!$O$4 + M24*'Tiền '!$P$4 + N24*'Tiền '!$Q$4</f>
         <v>514894.5909259335</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="64">
         <f>B24*'Tiền '!$E$3 + C24*'Tiền '!$F$3 + D24*'Tiền '!$G$3 +  E24*'Tiền '!$H$3 + F24*'Tiền '!$I$3 + G24*'Tiền '!$J$3 + H24*'Tiền '!$K$3 + I24*'Tiền '!$L$3 + J24*'Tiền '!$M$3 + K24*'Tiền '!$N$3 + L24*'Tiền '!$O$3 + M24*'Tiền '!$P$3 + N24*'Tiền '!$Q$3</f>
         <v>271105.4090740665</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="18.5">
+    <row r="25" spans="1:17" ht="18.75">
       <c r="A25" s="4">
         <v>45161</v>
       </c>
@@ -35312,16 +35347,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="64">
         <f>B25*'Tiền '!$E$4 + C25*'Tiền '!$F$4 + D25*'Tiền '!$G$4 +  E25*'Tiền '!$H$4 + F25*'Tiền '!$I$4 + G25*'Tiền '!$J$4 + H25*'Tiền '!$K$4 + I25*'Tiền '!$L$4 + J25*'Tiền '!$M$4 + K25*'Tiền '!$N$4 + L25*'Tiền '!$O$4 + M25*'Tiền '!$P$4 + N25*'Tiền '!$Q$4</f>
         <v>430373.04125324218</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="64">
         <f>B25*'Tiền '!$E$3 + C25*'Tiền '!$F$3 + D25*'Tiền '!$G$3 +  E25*'Tiền '!$H$3 + F25*'Tiền '!$I$3 + G25*'Tiền '!$J$3 + H25*'Tiền '!$K$3 + I25*'Tiền '!$L$3 + J25*'Tiền '!$M$3 + K25*'Tiền '!$N$3 + L25*'Tiền '!$O$3 + M25*'Tiền '!$P$3 + N25*'Tiền '!$Q$3</f>
         <v>235626.95874675782</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="18.5">
+    <row r="26" spans="1:17" ht="18.75">
       <c r="A26" s="4">
         <v>45162</v>
       </c>
@@ -35348,16 +35383,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="64">
         <f>B26*'Tiền '!$E$4 + C26*'Tiền '!$F$4 + D26*'Tiền '!$G$4 +  E26*'Tiền '!$H$4 + F26*'Tiền '!$I$4 + G26*'Tiền '!$J$4 + H26*'Tiền '!$K$4 + I26*'Tiền '!$L$4 + J26*'Tiền '!$M$4 + K26*'Tiền '!$N$4 + L26*'Tiền '!$O$4 + M26*'Tiền '!$P$4 + N26*'Tiền '!$Q$4</f>
         <v>417410.24908394745</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="64">
         <f>B26*'Tiền '!$E$3 + C26*'Tiền '!$F$3 + D26*'Tiền '!$G$3 +  E26*'Tiền '!$H$3 + F26*'Tiền '!$I$3 + G26*'Tiền '!$J$3 + H26*'Tiền '!$K$3 + I26*'Tiền '!$L$3 + J26*'Tiền '!$M$3 + K26*'Tiền '!$N$3 + L26*'Tiền '!$O$3 + M26*'Tiền '!$P$3 + N26*'Tiền '!$Q$3</f>
         <v>227589.75091605258</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.5">
+    <row r="27" spans="1:17" ht="18.75">
       <c r="A27" s="4">
         <v>45163</v>
       </c>
@@ -35388,16 +35423,16 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="64">
         <f>B27*'Tiền '!$E$4 + C27*'Tiền '!$F$4 + D27*'Tiền '!$G$4 +  E27*'Tiền '!$H$4 + F27*'Tiền '!$I$4 + G27*'Tiền '!$J$4 + H27*'Tiền '!$K$4 + I27*'Tiền '!$L$4 + J27*'Tiền '!$M$4 + K27*'Tiền '!$N$4 + L27*'Tiền '!$O$4 + M27*'Tiền '!$P$4 + N27*'Tiền '!$Q$4</f>
         <v>443588.25719461479</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="64">
         <f>B27*'Tiền '!$E$3 + C27*'Tiền '!$F$3 + D27*'Tiền '!$G$3 +  E27*'Tiền '!$H$3 + F27*'Tiền '!$I$3 + G27*'Tiền '!$J$3 + H27*'Tiền '!$K$3 + I27*'Tiền '!$L$3 + J27*'Tiền '!$M$3 + K27*'Tiền '!$N$3 + L27*'Tiền '!$O$3 + M27*'Tiền '!$P$3 + N27*'Tiền '!$Q$3</f>
         <v>240411.74280538515</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.5">
+    <row r="28" spans="1:17" ht="18.75">
       <c r="A28" s="4">
         <v>45164</v>
       </c>
@@ -35428,16 +35463,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P28" s="68">
+      <c r="P28" s="64">
         <f>B28*'Tiền '!$E$4 + C28*'Tiền '!$F$4 + D28*'Tiền '!$G$4 +  E28*'Tiền '!$H$4 + F28*'Tiền '!$I$4 + G28*'Tiền '!$J$4 + H28*'Tiền '!$K$4 + I28*'Tiền '!$L$4 + J28*'Tiền '!$M$4 + K28*'Tiền '!$N$4 + L28*'Tiền '!$O$4 + M28*'Tiền '!$P$4 + N28*'Tiền '!$Q$4</f>
         <v>423016.87688528415</v>
       </c>
-      <c r="Q28" s="68">
+      <c r="Q28" s="64">
         <f>B28*'Tiền '!$E$3 + C28*'Tiền '!$F$3 + D28*'Tiền '!$G$3 +  E28*'Tiền '!$H$3 + F28*'Tiền '!$I$3 + G28*'Tiền '!$J$3 + H28*'Tiền '!$K$3 + I28*'Tiền '!$L$3 + J28*'Tiền '!$M$3 + K28*'Tiền '!$N$3 + L28*'Tiền '!$O$3 + M28*'Tiền '!$P$3 + N28*'Tiền '!$Q$3</f>
         <v>234983.12311471588</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.5">
+    <row r="29" spans="1:17" ht="18.75">
       <c r="A29" s="4">
         <v>45165</v>
       </c>
@@ -35470,16 +35505,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="P29" s="68">
+      <c r="P29" s="64">
         <f>B29*'Tiền '!$E$4 + C29*'Tiền '!$F$4 + D29*'Tiền '!$G$4 +  E29*'Tiền '!$H$4 + F29*'Tiền '!$I$4 + G29*'Tiền '!$J$4 + H29*'Tiền '!$K$4 + I29*'Tiền '!$L$4 + J29*'Tiền '!$M$4 + K29*'Tiền '!$N$4 + L29*'Tiền '!$O$4 + M29*'Tiền '!$P$4 + N29*'Tiền '!$Q$4</f>
         <v>590793.99917658197</v>
       </c>
-      <c r="Q29" s="68">
+      <c r="Q29" s="64">
         <f>B29*'Tiền '!$E$3 + C29*'Tiền '!$F$3 + D29*'Tiền '!$G$3 +  E29*'Tiền '!$H$3 + F29*'Tiền '!$I$3 + G29*'Tiền '!$J$3 + H29*'Tiền '!$K$3 + I29*'Tiền '!$L$3 + J29*'Tiền '!$M$3 + K29*'Tiền '!$N$3 + L29*'Tiền '!$O$3 + M29*'Tiền '!$P$3 + N29*'Tiền '!$Q$3</f>
         <v>333206.00082341803</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.5">
+    <row r="30" spans="1:17" ht="18.75">
       <c r="A30" s="4">
         <v>45166</v>
       </c>
@@ -35512,16 +35547,16 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P30" s="68">
+      <c r="P30" s="64">
         <f>B30*'Tiền '!$E$4 + C30*'Tiền '!$F$4 + D30*'Tiền '!$G$4 +  E30*'Tiền '!$H$4 + F30*'Tiền '!$I$4 + G30*'Tiền '!$J$4 + H30*'Tiền '!$K$4 + I30*'Tiền '!$L$4 + J30*'Tiền '!$M$4 + K30*'Tiền '!$N$4 + L30*'Tiền '!$O$4 + M30*'Tiền '!$P$4 + N30*'Tiền '!$Q$4</f>
         <v>561776.75479984074</v>
       </c>
-      <c r="Q30" s="68">
+      <c r="Q30" s="64">
         <f>B30*'Tiền '!$E$3 + C30*'Tiền '!$F$3 + D30*'Tiền '!$G$3 +  E30*'Tiền '!$H$3 + F30*'Tiền '!$I$3 + G30*'Tiền '!$J$3 + H30*'Tiền '!$K$3 + I30*'Tiền '!$L$3 + J30*'Tiền '!$M$3 + K30*'Tiền '!$N$3 + L30*'Tiền '!$O$3 + M30*'Tiền '!$P$3 + N30*'Tiền '!$Q$3</f>
         <v>307223.2452001592</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="18.5">
+    <row r="31" spans="1:17" ht="18.75">
       <c r="A31" s="4">
         <v>45167</v>
       </c>
@@ -35554,16 +35589,16 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="P31" s="68">
+      <c r="P31" s="64">
         <f>B31*'Tiền '!$E$4 + C31*'Tiền '!$F$4 + D31*'Tiền '!$G$4 +  E31*'Tiền '!$H$4 + F31*'Tiền '!$I$4 + G31*'Tiền '!$J$4 + H31*'Tiền '!$K$4 + I31*'Tiền '!$L$4 + J31*'Tiền '!$M$4 + K31*'Tiền '!$N$4 + L31*'Tiền '!$O$4 + M31*'Tiền '!$P$4 + N31*'Tiền '!$Q$4</f>
         <v>645934.31258319959</v>
       </c>
-      <c r="Q31" s="68">
+      <c r="Q31" s="64">
         <f>B31*'Tiền '!$E$3 + C31*'Tiền '!$F$3 + D31*'Tiền '!$G$3 +  E31*'Tiền '!$H$3 + F31*'Tiền '!$I$3 + G31*'Tiền '!$J$3 + H31*'Tiền '!$K$3 + I31*'Tiền '!$L$3 + J31*'Tiền '!$M$3 + K31*'Tiền '!$N$3 + L31*'Tiền '!$O$3 + M31*'Tiền '!$P$3 + N31*'Tiền '!$Q$3</f>
         <v>349065.68741680053</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="18.5">
+    <row r="32" spans="1:17" ht="18.75">
       <c r="A32" s="4">
         <v>45168</v>
       </c>
@@ -35596,16 +35631,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="P32" s="68">
+      <c r="P32" s="64">
         <f>B32*'Tiền '!$E$4 + C32*'Tiền '!$F$4 + D32*'Tiền '!$G$4 +  E32*'Tiền '!$H$4 + F32*'Tiền '!$I$4 + G32*'Tiền '!$J$4 + H32*'Tiền '!$K$4 + I32*'Tiền '!$L$4 + J32*'Tiền '!$M$4 + K32*'Tiền '!$N$4 + L32*'Tiền '!$O$4 + M32*'Tiền '!$P$4 + N32*'Tiền '!$Q$4</f>
         <v>501861.19291311561</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="Q32" s="64">
         <f>B32*'Tiền '!$E$3 + C32*'Tiền '!$F$3 + D32*'Tiền '!$G$3 +  E32*'Tiền '!$H$3 + F32*'Tiền '!$I$3 + G32*'Tiền '!$J$3 + H32*'Tiền '!$K$3 + I32*'Tiền '!$L$3 + J32*'Tiền '!$M$3 + K32*'Tiền '!$N$3 + L32*'Tiền '!$O$3 + M32*'Tiền '!$P$3 + N32*'Tiền '!$Q$3</f>
         <v>282138.80708688434</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="18.5">
+    <row r="33" spans="1:17" ht="18.75">
       <c r="A33" s="4">
         <v>45169</v>
       </c>
@@ -35638,18 +35673,18 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="64">
         <f>B33*'Tiền '!$E$4 + C33*'Tiền '!$F$4 + D33*'Tiền '!$G$4 +  E33*'Tiền '!$H$4 + F33*'Tiền '!$I$4 + G33*'Tiền '!$J$4 + H33*'Tiền '!$K$4 + I33*'Tiền '!$L$4 + J33*'Tiền '!$M$4 + K33*'Tiền '!$N$4 + L33*'Tiền '!$O$4 + M33*'Tiền '!$P$4 + N33*'Tiền '!$Q$4</f>
         <v>700566.63459453522</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="64">
         <f>B33*'Tiền '!$E$3 + C33*'Tiền '!$F$3 + D33*'Tiền '!$G$3 +  E33*'Tiền '!$H$3 + F33*'Tiền '!$I$3 + G33*'Tiền '!$J$3 + H33*'Tiền '!$K$3 + I33*'Tiền '!$L$3 + J33*'Tiền '!$M$3 + K33*'Tiền '!$N$3 + L33*'Tiền '!$O$3 + M33*'Tiền '!$P$3 + N33*'Tiền '!$Q$3</f>
         <v>377433.36540546478</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.5">
+    <row r="34" spans="1:17" ht="18.75">
       <c r="A34" s="58" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B34" s="59">
         <f>SUM(B3:B33)</f>
@@ -35707,11 +35742,11 @@
         <f t="shared" si="1"/>
         <v>1530</v>
       </c>
-      <c r="P34" s="69">
+      <c r="P34" s="65">
         <f>SUM(P3:P33)</f>
         <v>16421173.174588142</v>
       </c>
-      <c r="Q34" s="69">
+      <c r="Q34" s="65">
         <f>SUM(Q3:Q33)</f>
         <v>8953826.8254118562</v>
       </c>
